--- a/programacion2-2025/05-trabajoPractico-Arboles/PUNTO 5 Y 6/TP_5_Arboles_PUNTO_6_ArbolB.xlsx
+++ b/programacion2-2025/05-trabajoPractico-Arboles/PUNTO 5 Y 6/TP_5_Arboles_PUNTO_6_ArbolB.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02829B6-13CB-459D-AD45-9C82249C9A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PUNTO 6 A" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="70">
   <si>
     <t>Insertar: 13, 16, 3, 12, 15, 8, 4, 19, 5, 9, 21, 11</t>
   </si>
@@ -213,9 +214,6 @@
     <t>INSERTAR 2</t>
   </si>
   <si>
-    <t>INSERTAR 4 (OTRA VEZ)</t>
-  </si>
-  <si>
     <t>INSERTAR 22</t>
   </si>
   <si>
@@ -234,7 +232,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -244,7 +242,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,8 +285,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDA9694"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D79B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -370,19 +386,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -403,21 +406,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -550,17 +538,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
     <border>
       <left/>
       <right style="thin">
@@ -605,31 +582,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -679,19 +636,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -735,95 +683,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -832,9 +774,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC4D79B"/>
+      <color rgb="FFDA9694"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -857,7 +808,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="1 Flecha abajo"/>
+        <xdr:cNvPr id="2" name="1 Flecha abajo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -911,7 +868,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="5 Flecha abajo"/>
+        <xdr:cNvPr id="6" name="5 Flecha abajo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -970,7 +933,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="2 Flecha abajo"/>
+        <xdr:cNvPr id="3" name="2 Flecha abajo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1024,7 +993,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="3 Flecha abajo"/>
+        <xdr:cNvPr id="4" name="3 Flecha abajo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1078,7 +1053,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="4 Flecha abajo"/>
+        <xdr:cNvPr id="5" name="4 Flecha abajo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1132,7 +1113,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="5 Flecha abajo"/>
+        <xdr:cNvPr id="6" name="5 Flecha abajo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1191,7 +1178,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="1 Flecha abajo"/>
+        <xdr:cNvPr id="2" name="1 Flecha abajo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1245,7 +1238,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="2 Flecha abajo"/>
+        <xdr:cNvPr id="3" name="2 Flecha abajo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1299,7 +1298,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="3 Flecha abajo"/>
+        <xdr:cNvPr id="4" name="3 Flecha abajo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1353,7 +1358,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="4 Flecha abajo"/>
+        <xdr:cNvPr id="5" name="4 Flecha abajo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1394,25 +1405,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="5 Flecha abajo"/>
+        <xdr:cNvPr id="11" name="4 Flecha abajo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F32E66-E41E-4982-A404-95EA7844246B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5095875" y="26231850"/>
+          <a:off x="6229350" y="31318200"/>
           <a:ext cx="180975" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -1449,24 +1466,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="6 Flecha abajo"/>
+        <xdr:cNvPr id="12" name="4 Flecha abajo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD022AE1-8AAC-4C8E-B9D8-7EFE6AAB55EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5915025" y="28184475"/>
+          <a:off x="5886450" y="35013900"/>
           <a:ext cx="180975" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -1502,134 +1525,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="7 Flecha abajo"/>
+        <xdr:cNvPr id="13" name="4 Flecha abajo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF164990-5129-4E41-826D-51E00F194511}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5276850" y="38004750"/>
+          <a:off x="5857875" y="36747450"/>
           <a:ext cx="180975" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-AR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>210</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>212</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="8 Flecha abajo"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5362575" y="41224200"/>
-          <a:ext cx="142875" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-AR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>219</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="9 Flecha abajo"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5353050" y="42910125"/>
-          <a:ext cx="142875" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -1666,9 +1587,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1706,7 +1627,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1778,7 +1699,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1951,7 +1872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2241,8 +2162,8 @@
     <row r="56" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D58" s="12"/>
-      <c r="E58" s="13"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="12"/>
       <c r="F58" s="5">
         <v>5</v>
       </c>
@@ -2252,14 +2173,14 @@
     </row>
     <row r="59" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C59" s="7"/>
-      <c r="F59" s="14"/>
+      <c r="F59" s="13"/>
       <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="2">
         <v>3</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="2">
         <v>4</v>
       </c>
       <c r="E60" s="2">
@@ -2286,24 +2207,22 @@
     </row>
     <row r="63" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="42"/>
-      <c r="D64" s="13"/>
+      <c r="D64" s="12"/>
       <c r="E64" s="4">
         <v>5</v>
       </c>
       <c r="F64" s="4">
         <v>13</v>
       </c>
-      <c r="G64" s="17"/>
-      <c r="H64" s="12"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="11"/>
     </row>
     <row r="65" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="43"/>
+      <c r="B65" s="39"/>
       <c r="C65" s="7"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="18"/>
+      <c r="E65" s="41"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="16"/>
     </row>
     <row r="66" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="2">
@@ -2339,25 +2258,22 @@
     </row>
     <row r="69" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="42"/>
-      <c r="D70" s="13"/>
+      <c r="D70" s="12"/>
       <c r="E70" s="4">
         <v>5</v>
       </c>
       <c r="F70" s="4">
         <v>13</v>
       </c>
-      <c r="G70" s="17"/>
-      <c r="H70" s="12"/>
-      <c r="K70" s="42"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="11"/>
     </row>
     <row r="71" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="43"/>
+      <c r="B71" s="39"/>
       <c r="C71" s="7"/>
-      <c r="E71" s="45"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="18"/>
+      <c r="E71" s="41"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="16"/>
     </row>
     <row r="72" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="2">
@@ -2396,25 +2312,22 @@
     </row>
     <row r="75" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="47">
+      <c r="D76" s="12"/>
+      <c r="E76" s="43">
         <v>5</v>
       </c>
       <c r="F76" s="4">
         <v>13</v>
       </c>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
     </row>
     <row r="77" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C77" s="7"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="44"/>
-      <c r="I77" s="18"/>
+      <c r="E77" s="41"/>
+      <c r="G77" s="40"/>
+      <c r="I77" s="16"/>
     </row>
     <row r="78" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="2">
@@ -2449,8 +2362,8 @@
       </c>
     </row>
     <row r="79" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="20" t="s">
+    <row r="80" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2477,1648 +2390,1648 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U154"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
+    <sheetView topLeftCell="A125" workbookViewId="0">
       <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="22" customWidth="1"/>
-    <col min="2" max="18" width="9.140625" style="22"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="18" width="9.140625" style="19"/>
     <col min="19" max="21" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-    </row>
-    <row r="2" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+    </row>
+    <row r="2" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-    </row>
-    <row r="4" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+    </row>
+    <row r="4" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
     </row>
     <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+    <row r="20" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="25" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
     </row>
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
+    <row r="33" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
     </row>
     <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="25" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="31"/>
-      <c r="E36" s="32"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="29"/>
     </row>
     <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F37" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="27" t="s">
+      <c r="G37" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+    <row r="39" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
     </row>
     <row r="40" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F41" s="28" t="s">
+      <c r="F41" s="25" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="35"/>
-      <c r="F42" s="36"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="33"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G43" s="27" t="s">
+      <c r="G43" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H43" s="27" t="s">
+      <c r="H43" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+    <row r="45" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-      <c r="Q45" s="25"/>
-      <c r="R45" s="25"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
     </row>
     <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F47" s="28" t="s">
+      <c r="F47" s="25" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="31"/>
-      <c r="F48" s="32"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="29"/>
     </row>
     <row r="49" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="27" t="s">
+      <c r="E49" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G49" s="27" t="s">
+      <c r="G49" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="27" t="s">
+      <c r="H49" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I49" s="27" t="s">
+      <c r="I49" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
+    <row r="51" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="Q51" s="25"/>
-      <c r="R51" s="25"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
     </row>
     <row r="52" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G53" s="28" t="s">
+      <c r="G53" s="25" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F54" s="35"/>
-      <c r="G54" s="36"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="33"/>
     </row>
     <row r="55" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="D55" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="29" t="s">
+      <c r="E55" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F55" s="27" t="s">
+      <c r="F55" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H55" s="27" t="s">
+      <c r="H55" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I55" s="27" t="s">
+      <c r="I55" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J55" s="27" t="s">
+      <c r="J55" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D62" s="37"/>
-      <c r="E62" s="28" t="s">
+      <c r="D62" s="34"/>
+      <c r="E62" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F62" s="28" t="s">
+      <c r="F62" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G62" s="39"/>
+      <c r="G62" s="36"/>
     </row>
     <row r="63" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="31"/>
-      <c r="E63" s="35"/>
-      <c r="G63" s="40"/>
+      <c r="C63" s="28"/>
+      <c r="E63" s="32"/>
+      <c r="G63" s="37"/>
     </row>
     <row r="64" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E64" s="30" t="s">
+      <c r="E64" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F64" s="27" t="s">
+      <c r="F64" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H64" s="27" t="s">
+      <c r="H64" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I64" s="27" t="s">
+      <c r="I64" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J64" s="27" t="s">
+      <c r="J64" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="25" t="s">
+    <row r="66" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25"/>
-      <c r="M66" s="25"/>
-      <c r="N66" s="25"/>
-      <c r="O66" s="25"/>
-      <c r="Q66" s="25"/>
-      <c r="R66" s="25"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="22"/>
+      <c r="Q66" s="22"/>
+      <c r="R66" s="22"/>
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
     </row>
     <row r="67" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D68" s="37"/>
-      <c r="E68" s="28" t="s">
+      <c r="D68" s="34"/>
+      <c r="E68" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F68" s="28" t="s">
+      <c r="F68" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G68" s="39"/>
+      <c r="G68" s="36"/>
     </row>
     <row r="69" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="31"/>
-      <c r="E69" s="54"/>
-      <c r="G69" s="40"/>
+      <c r="C69" s="28"/>
+      <c r="E69" s="50"/>
+      <c r="G69" s="37"/>
     </row>
     <row r="70" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="27" t="s">
+      <c r="B70" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C70" s="27" t="s">
+      <c r="C70" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E70" s="27" t="s">
+      <c r="E70" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F70" s="27" t="s">
+      <c r="F70" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H70" s="27" t="s">
+      <c r="H70" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I70" s="27" t="s">
+      <c r="I70" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J70" s="27" t="s">
+      <c r="J70" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="K70" s="27" t="s">
+      <c r="K70" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="25" t="s">
+    <row r="72" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="25"/>
-      <c r="M72" s="25"/>
-      <c r="N72" s="25"/>
-      <c r="O72" s="25"/>
-      <c r="Q72" s="25"/>
-      <c r="R72" s="25"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="22"/>
+      <c r="Q72" s="22"/>
+      <c r="R72" s="22"/>
       <c r="S72" s="3"/>
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
     </row>
     <row r="73" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="74" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D74" s="48"/>
-      <c r="E74" s="28" t="s">
+      <c r="D74" s="44"/>
+      <c r="E74" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F74" s="28" t="s">
+      <c r="F74" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G74" s="48"/>
+      <c r="G74" s="44"/>
     </row>
     <row r="75" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="35"/>
-      <c r="E75" s="54"/>
-      <c r="G75" s="40"/>
+      <c r="C75" s="32"/>
+      <c r="E75" s="50"/>
+      <c r="G75" s="37"/>
     </row>
     <row r="76" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="27" t="s">
+      <c r="B76" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C76" s="27" t="s">
+      <c r="C76" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E76" s="27" t="s">
+      <c r="E76" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F76" s="27" t="s">
+      <c r="F76" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H76" s="27" t="s">
+      <c r="H76" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I76" s="27" t="s">
+      <c r="I76" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J76" s="29" t="s">
+      <c r="J76" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="K76" s="27" t="s">
+      <c r="K76" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L76" s="27" t="s">
+      <c r="L76" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="83" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D83" s="48"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="28" t="s">
+      <c r="D83" s="44"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G83" s="28" t="s">
+      <c r="G83" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H83" s="30" t="s">
+      <c r="H83" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I83" s="39"/>
-      <c r="J83" s="48"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="44"/>
     </row>
     <row r="84" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="31"/>
-      <c r="F84" s="38"/>
-      <c r="H84" s="52"/>
-      <c r="J84" s="40"/>
+      <c r="C84" s="28"/>
+      <c r="F84" s="35"/>
+      <c r="H84" s="48"/>
+      <c r="J84" s="37"/>
     </row>
     <row r="85" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="27" t="s">
+      <c r="B85" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C85" s="27" t="s">
+      <c r="C85" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E85" s="27" t="s">
+      <c r="E85" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F85" s="27" t="s">
+      <c r="F85" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H85" s="27" t="s">
+      <c r="H85" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I85" s="27" t="s">
+      <c r="I85" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K85" s="27" t="s">
+      <c r="K85" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L85" s="27" t="s">
+      <c r="L85" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="25" t="s">
+    <row r="87" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="25"/>
-      <c r="K87" s="25"/>
-      <c r="L87" s="25"/>
-      <c r="M87" s="25"/>
-      <c r="N87" s="25"/>
-      <c r="O87" s="25"/>
-      <c r="P87" s="25"/>
-      <c r="Q87" s="25"/>
-      <c r="R87" s="25"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="22"/>
+      <c r="O87" s="22"/>
+      <c r="P87" s="22"/>
+      <c r="Q87" s="22"/>
+      <c r="R87" s="22"/>
       <c r="S87" s="3"/>
       <c r="T87" s="3"/>
       <c r="U87" s="3"/>
     </row>
     <row r="88" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D89" s="48"/>
-      <c r="E89" s="48"/>
-      <c r="F89" s="28" t="s">
+      <c r="D89" s="44"/>
+      <c r="E89" s="44"/>
+      <c r="F89" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G89" s="28" t="s">
+      <c r="G89" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H89" s="28" t="s">
+      <c r="H89" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I89" s="48"/>
-      <c r="J89" s="48"/>
-      <c r="K89" s="48"/>
+      <c r="I89" s="44"/>
+      <c r="J89" s="44"/>
+      <c r="K89" s="44"/>
     </row>
     <row r="90" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="35"/>
-      <c r="F90" s="35"/>
-      <c r="H90" s="55"/>
-      <c r="K90" s="40"/>
+      <c r="C90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="H90" s="51"/>
+      <c r="K90" s="37"/>
     </row>
     <row r="91" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="27" t="s">
+      <c r="B91" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C91" s="27" t="s">
+      <c r="C91" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E91" s="27" t="s">
+      <c r="E91" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F91" s="27" t="s">
+      <c r="F91" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G91" s="27" t="s">
+      <c r="G91" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="I91" s="27" t="s">
+      <c r="I91" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J91" s="27" t="s">
+      <c r="J91" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L91" s="27" t="s">
+      <c r="L91" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="M91" s="27" t="s">
+      <c r="M91" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="25" t="s">
+    <row r="93" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B93" s="25"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="25"/>
-      <c r="K93" s="25"/>
-      <c r="L93" s="25"/>
-      <c r="M93" s="25"/>
-      <c r="N93" s="25"/>
-      <c r="O93" s="25"/>
-      <c r="P93" s="25"/>
-      <c r="Q93" s="25"/>
-      <c r="R93" s="25"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="22"/>
+      <c r="L93" s="22"/>
+      <c r="M93" s="22"/>
+      <c r="N93" s="22"/>
+      <c r="O93" s="22"/>
+      <c r="P93" s="22"/>
+      <c r="Q93" s="22"/>
+      <c r="R93" s="22"/>
       <c r="S93" s="3"/>
       <c r="T93" s="3"/>
       <c r="U93" s="3"/>
     </row>
     <row r="94" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="95" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D95" s="48"/>
-      <c r="E95" s="48"/>
-      <c r="F95" s="37"/>
-      <c r="G95" s="28" t="s">
+      <c r="D95" s="44"/>
+      <c r="E95" s="44"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H95" s="28" t="s">
+      <c r="H95" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I95" s="28" t="s">
+      <c r="I95" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="J95" s="39"/>
-      <c r="K95" s="48"/>
-      <c r="L95" s="48"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="44"/>
+      <c r="L95" s="44"/>
     </row>
     <row r="96" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C96" s="31"/>
-      <c r="G96" s="38"/>
-      <c r="I96" s="56"/>
-      <c r="L96" s="40"/>
+      <c r="C96" s="28"/>
+      <c r="G96" s="35"/>
+      <c r="I96" s="52"/>
+      <c r="L96" s="37"/>
     </row>
     <row r="97" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="27" t="s">
+      <c r="B97" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C97" s="27" t="s">
+      <c r="C97" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E97" s="27" t="s">
+      <c r="E97" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="F97" s="27" t="s">
+      <c r="F97" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G97" s="27" t="s">
+      <c r="G97" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H97" s="27" t="s">
+      <c r="H97" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J97" s="27" t="s">
+      <c r="J97" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="K97" s="27" t="s">
+      <c r="K97" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M97" s="27" t="s">
+      <c r="M97" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="N97" s="27" t="s">
+      <c r="N97" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="25" t="s">
+    <row r="99" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="25"/>
-      <c r="H99" s="25"/>
-      <c r="I99" s="25"/>
-      <c r="J99" s="25"/>
-      <c r="K99" s="25"/>
-      <c r="L99" s="25"/>
-      <c r="M99" s="25"/>
-      <c r="N99" s="25"/>
-      <c r="O99" s="25"/>
-      <c r="P99" s="25"/>
-      <c r="Q99" s="25"/>
-      <c r="R99" s="25"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="22"/>
+      <c r="O99" s="22"/>
+      <c r="P99" s="22"/>
+      <c r="Q99" s="22"/>
+      <c r="R99" s="22"/>
       <c r="S99" s="3"/>
       <c r="T99" s="3"/>
       <c r="U99" s="3"/>
     </row>
     <row r="100" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D101" s="48"/>
-      <c r="E101" s="48"/>
-      <c r="F101" s="48"/>
-      <c r="G101" s="48"/>
-      <c r="H101" s="28" t="s">
+      <c r="D101" s="44"/>
+      <c r="E101" s="44"/>
+      <c r="F101" s="44"/>
+      <c r="G101" s="44"/>
+      <c r="H101" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I101" s="28" t="s">
+      <c r="I101" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J101" s="28" t="s">
+      <c r="J101" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="K101" s="48"/>
-      <c r="L101" s="48"/>
-      <c r="M101" s="48"/>
+      <c r="K101" s="44"/>
+      <c r="L101" s="44"/>
+      <c r="M101" s="44"/>
     </row>
     <row r="102" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C102" s="35"/>
-      <c r="H102" s="49"/>
-      <c r="J102" s="55"/>
-      <c r="M102" s="40"/>
+      <c r="C102" s="32"/>
+      <c r="H102" s="45"/>
+      <c r="J102" s="51"/>
+      <c r="M102" s="37"/>
     </row>
     <row r="103" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="27" t="s">
+      <c r="B103" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C103" s="27" t="s">
+      <c r="C103" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E103" s="27" t="s">
+      <c r="E103" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="F103" s="27" t="s">
+      <c r="F103" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G103" s="29" t="s">
+      <c r="G103" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="H103" s="27" t="s">
+      <c r="H103" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I103" s="27" t="s">
+      <c r="I103" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K103" s="27" t="s">
+      <c r="K103" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="L103" s="27" t="s">
+      <c r="L103" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N103" s="27" t="s">
+      <c r="N103" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="O103" s="27" t="s">
+      <c r="O103" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="108" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="109" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D109" s="48"/>
-      <c r="E109" s="48"/>
-      <c r="F109" s="37"/>
-      <c r="G109" s="28" t="s">
+      <c r="D109" s="44"/>
+      <c r="E109" s="44"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H109" s="30" t="s">
+      <c r="H109" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I109" s="28" t="s">
+      <c r="I109" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J109" s="28" t="s">
+      <c r="J109" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="K109" s="39"/>
-      <c r="L109" s="48"/>
-      <c r="M109" s="48"/>
+      <c r="K109" s="36"/>
+      <c r="L109" s="44"/>
+      <c r="M109" s="44"/>
     </row>
     <row r="110" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="31"/>
-      <c r="G110" s="57"/>
-      <c r="H110" s="54"/>
-      <c r="J110" s="56"/>
-      <c r="M110" s="40"/>
+      <c r="C110" s="28"/>
+      <c r="G110" s="53"/>
+      <c r="H110" s="50"/>
+      <c r="J110" s="52"/>
+      <c r="M110" s="37"/>
     </row>
     <row r="111" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="27" t="s">
+      <c r="B111" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C111" s="27" t="s">
+      <c r="C111" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E111" s="27" t="s">
+      <c r="E111" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="F111" s="27" t="s">
+      <c r="F111" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H111" s="27" t="s">
+      <c r="H111" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I111" s="27" t="s">
+      <c r="I111" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K111" s="27" t="s">
+      <c r="K111" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="L111" s="27" t="s">
+      <c r="L111" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N111" s="27" t="s">
+      <c r="N111" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="O111" s="27" t="s">
+      <c r="O111" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="25" t="s">
+    <row r="113" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B113" s="25"/>
-      <c r="C113" s="25"/>
-      <c r="D113" s="25"/>
-      <c r="E113" s="25"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="25"/>
-      <c r="H113" s="25"/>
-      <c r="I113" s="25"/>
-      <c r="J113" s="25"/>
-      <c r="K113" s="25"/>
-      <c r="L113" s="25"/>
-      <c r="M113" s="25"/>
-      <c r="N113" s="25"/>
-      <c r="O113" s="25"/>
-      <c r="P113" s="25"/>
-      <c r="Q113" s="25"/>
-      <c r="R113" s="25"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="22"/>
+      <c r="J113" s="22"/>
+      <c r="K113" s="22"/>
+      <c r="L113" s="22"/>
+      <c r="M113" s="22"/>
+      <c r="N113" s="22"/>
+      <c r="O113" s="22"/>
+      <c r="P113" s="22"/>
+      <c r="Q113" s="22"/>
+      <c r="R113" s="22"/>
       <c r="S113" s="3"/>
       <c r="T113" s="3"/>
       <c r="U113" s="3"/>
     </row>
     <row r="114" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="115" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D115" s="48"/>
-      <c r="E115" s="48"/>
-      <c r="F115" s="48"/>
-      <c r="G115" s="28" t="s">
+      <c r="D115" s="44"/>
+      <c r="E115" s="44"/>
+      <c r="F115" s="44"/>
+      <c r="G115" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H115" s="28" t="s">
+      <c r="H115" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I115" s="28" t="s">
+      <c r="I115" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J115" s="28" t="s">
+      <c r="J115" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="K115" s="48"/>
-      <c r="L115" s="48"/>
-      <c r="M115" s="48"/>
-      <c r="N115" s="48"/>
+      <c r="K115" s="44"/>
+      <c r="L115" s="44"/>
+      <c r="M115" s="44"/>
+      <c r="N115" s="44"/>
     </row>
     <row r="116" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C116" s="35"/>
-      <c r="G116" s="49"/>
-      <c r="H116" s="35"/>
-      <c r="J116" s="55"/>
-      <c r="N116" s="40"/>
+      <c r="C116" s="32"/>
+      <c r="G116" s="45"/>
+      <c r="H116" s="32"/>
+      <c r="J116" s="51"/>
+      <c r="N116" s="37"/>
     </row>
     <row r="117" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="27" t="s">
+      <c r="B117" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C117" s="27" t="s">
+      <c r="C117" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E117" s="27" t="s">
+      <c r="E117" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="F117" s="27" t="s">
+      <c r="F117" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H117" s="27" t="s">
+      <c r="H117" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I117" s="27" t="s">
+      <c r="I117" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K117" s="27" t="s">
+      <c r="K117" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="L117" s="27" t="s">
+      <c r="L117" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="M117" s="27" t="s">
+      <c r="M117" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="O117" s="27" t="s">
+      <c r="O117" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="P117" s="27" t="s">
+      <c r="P117" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="25" t="s">
+    <row r="119" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B119" s="25"/>
-      <c r="C119" s="25"/>
-      <c r="D119" s="25"/>
-      <c r="E119" s="25"/>
-      <c r="F119" s="25"/>
-      <c r="G119" s="25"/>
-      <c r="H119" s="25"/>
-      <c r="I119" s="25"/>
-      <c r="J119" s="25"/>
-      <c r="K119" s="25"/>
-      <c r="L119" s="25"/>
-      <c r="M119" s="25"/>
-      <c r="N119" s="25"/>
-      <c r="O119" s="25"/>
-      <c r="P119" s="25"/>
-      <c r="Q119" s="25"/>
-      <c r="R119" s="25"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="22"/>
+      <c r="H119" s="22"/>
+      <c r="I119" s="22"/>
+      <c r="J119" s="22"/>
+      <c r="K119" s="22"/>
+      <c r="L119" s="22"/>
+      <c r="M119" s="22"/>
+      <c r="N119" s="22"/>
+      <c r="O119" s="22"/>
+      <c r="P119" s="22"/>
+      <c r="Q119" s="22"/>
+      <c r="R119" s="22"/>
       <c r="S119" s="3"/>
       <c r="T119" s="3"/>
       <c r="U119" s="3"/>
     </row>
     <row r="120" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="121" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D121" s="48"/>
-      <c r="E121" s="48"/>
-      <c r="F121" s="37"/>
-      <c r="G121" s="28" t="s">
+      <c r="D121" s="44"/>
+      <c r="E121" s="44"/>
+      <c r="F121" s="34"/>
+      <c r="G121" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H121" s="28" t="s">
+      <c r="H121" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I121" s="28" t="s">
+      <c r="I121" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J121" s="28" t="s">
+      <c r="J121" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="K121" s="39"/>
-      <c r="L121" s="48"/>
-      <c r="M121" s="48"/>
-      <c r="N121" s="48"/>
-      <c r="O121" s="48"/>
+      <c r="K121" s="36"/>
+      <c r="L121" s="44"/>
+      <c r="M121" s="44"/>
+      <c r="N121" s="44"/>
+      <c r="O121" s="44"/>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C122" s="35"/>
-      <c r="F122" s="50"/>
-      <c r="G122" s="51"/>
-      <c r="H122" s="32"/>
-      <c r="I122" s="32"/>
-      <c r="J122" s="58"/>
-      <c r="K122" s="48"/>
-      <c r="O122" s="40"/>
+      <c r="C122" s="32"/>
+      <c r="F122" s="46"/>
+      <c r="G122" s="47"/>
+      <c r="H122" s="29"/>
+      <c r="I122" s="29"/>
+      <c r="J122" s="54"/>
+      <c r="K122" s="44"/>
+      <c r="O122" s="37"/>
     </row>
     <row r="123" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C123" s="31"/>
-      <c r="E123" s="31"/>
-      <c r="H123" s="31"/>
-      <c r="K123" s="40"/>
-      <c r="O123" s="35"/>
+      <c r="C123" s="28"/>
+      <c r="E123" s="28"/>
+      <c r="H123" s="28"/>
+      <c r="K123" s="37"/>
+      <c r="O123" s="32"/>
     </row>
     <row r="124" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="27" t="s">
+      <c r="B124" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C124" s="27" t="s">
+      <c r="C124" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E124" s="27" t="s">
+      <c r="E124" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="F124" s="27" t="s">
+      <c r="F124" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H124" s="27" t="s">
+      <c r="H124" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I124" s="27" t="s">
+      <c r="I124" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J124" s="27" t="s">
+      <c r="J124" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="L124" s="27" t="s">
+      <c r="L124" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="M124" s="27" t="s">
+      <c r="M124" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="N124" s="27" t="s">
+      <c r="N124" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="P124" s="27" t="s">
+      <c r="P124" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="Q124" s="27" t="s">
+      <c r="Q124" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="25" t="s">
+    <row r="126" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B126" s="25"/>
-      <c r="C126" s="25"/>
-      <c r="D126" s="25"/>
-      <c r="E126" s="25"/>
-      <c r="F126" s="25"/>
-      <c r="G126" s="25"/>
-      <c r="H126" s="25"/>
-      <c r="I126" s="25"/>
-      <c r="J126" s="25"/>
-      <c r="K126" s="25"/>
-      <c r="L126" s="25"/>
-      <c r="M126" s="25"/>
-      <c r="N126" s="25"/>
-      <c r="O126" s="25"/>
-      <c r="P126" s="25"/>
-      <c r="Q126" s="25"/>
-      <c r="R126" s="25"/>
+      <c r="B126" s="22"/>
+      <c r="C126" s="22"/>
+      <c r="D126" s="22"/>
+      <c r="E126" s="22"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="22"/>
+      <c r="H126" s="22"/>
+      <c r="I126" s="22"/>
+      <c r="J126" s="22"/>
+      <c r="K126" s="22"/>
+      <c r="L126" s="22"/>
+      <c r="M126" s="22"/>
+      <c r="N126" s="22"/>
+      <c r="O126" s="22"/>
+      <c r="P126" s="22"/>
+      <c r="Q126" s="22"/>
+      <c r="R126" s="22"/>
       <c r="S126" s="3"/>
       <c r="T126" s="3"/>
       <c r="U126" s="3"/>
     </row>
     <row r="127" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="128" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D128" s="48"/>
-      <c r="E128" s="48"/>
-      <c r="F128" s="48"/>
-      <c r="G128" s="28" t="s">
+      <c r="D128" s="44"/>
+      <c r="E128" s="44"/>
+      <c r="F128" s="44"/>
+      <c r="G128" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H128" s="28" t="s">
+      <c r="H128" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I128" s="28" t="s">
+      <c r="I128" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J128" s="28" t="s">
+      <c r="J128" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="K128" s="48"/>
-      <c r="L128" s="48"/>
-      <c r="M128" s="48"/>
-      <c r="N128" s="48"/>
-      <c r="O128" s="48"/>
-      <c r="P128" s="48"/>
+      <c r="K128" s="44"/>
+      <c r="L128" s="44"/>
+      <c r="M128" s="44"/>
+      <c r="N128" s="44"/>
+      <c r="O128" s="44"/>
+      <c r="P128" s="44"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C129" s="35"/>
-      <c r="G129" s="53"/>
-      <c r="H129" s="36"/>
-      <c r="J129" s="55"/>
-      <c r="K129" s="48"/>
-      <c r="L129" s="48"/>
-      <c r="P129" s="40"/>
+      <c r="C129" s="32"/>
+      <c r="G129" s="49"/>
+      <c r="H129" s="33"/>
+      <c r="J129" s="51"/>
+      <c r="K129" s="44"/>
+      <c r="L129" s="44"/>
+      <c r="P129" s="37"/>
     </row>
     <row r="130" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C130" s="35"/>
-      <c r="F130" s="35"/>
-      <c r="I130" s="55"/>
-      <c r="L130" s="40"/>
-      <c r="P130" s="35"/>
+      <c r="C130" s="32"/>
+      <c r="F130" s="32"/>
+      <c r="I130" s="51"/>
+      <c r="L130" s="37"/>
+      <c r="P130" s="32"/>
     </row>
     <row r="131" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="27" t="s">
+      <c r="B131" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C131" s="27" t="s">
+      <c r="C131" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E131" s="27" t="s">
+      <c r="E131" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="F131" s="27" t="s">
+      <c r="F131" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G131" s="27" t="s">
+      <c r="G131" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I131" s="27" t="s">
+      <c r="I131" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J131" s="27" t="s">
+      <c r="J131" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K131" s="27" t="s">
+      <c r="K131" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="M131" s="27" t="s">
+      <c r="M131" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="N131" s="27" t="s">
+      <c r="N131" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="O131" s="27" t="s">
+      <c r="O131" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="Q131" s="27" t="s">
+      <c r="Q131" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="R131" s="27" t="s">
+      <c r="R131" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="25" t="s">
+    <row r="133" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B133" s="25"/>
-      <c r="C133" s="25"/>
-      <c r="D133" s="25"/>
-      <c r="E133" s="25"/>
-      <c r="F133" s="25"/>
-      <c r="G133" s="25"/>
-      <c r="H133" s="25"/>
-      <c r="I133" s="25"/>
-      <c r="J133" s="25"/>
-      <c r="K133" s="25"/>
-      <c r="L133" s="25"/>
-      <c r="M133" s="25"/>
-      <c r="N133" s="25"/>
-      <c r="O133" s="25"/>
-      <c r="P133" s="25"/>
-      <c r="Q133" s="25"/>
-      <c r="R133" s="25"/>
+      <c r="B133" s="22"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="22"/>
+      <c r="E133" s="22"/>
+      <c r="F133" s="22"/>
+      <c r="G133" s="22"/>
+      <c r="H133" s="22"/>
+      <c r="I133" s="22"/>
+      <c r="J133" s="22"/>
+      <c r="K133" s="22"/>
+      <c r="L133" s="22"/>
+      <c r="M133" s="22"/>
+      <c r="N133" s="22"/>
+      <c r="O133" s="22"/>
+      <c r="P133" s="22"/>
+      <c r="Q133" s="22"/>
+      <c r="R133" s="22"/>
       <c r="S133" s="3"/>
       <c r="T133" s="3"/>
       <c r="U133" s="3"/>
     </row>
     <row r="134" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="135" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D135" s="48"/>
-      <c r="E135" s="48"/>
-      <c r="F135" s="48"/>
-      <c r="G135" s="28" t="s">
+      <c r="D135" s="44"/>
+      <c r="E135" s="44"/>
+      <c r="F135" s="44"/>
+      <c r="G135" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H135" s="28" t="s">
+      <c r="H135" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I135" s="28" t="s">
+      <c r="I135" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J135" s="28" t="s">
+      <c r="J135" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="K135" s="48"/>
-      <c r="L135" s="48"/>
-      <c r="M135" s="48"/>
-      <c r="N135" s="48"/>
-      <c r="O135" s="48"/>
-      <c r="P135" s="48"/>
+      <c r="K135" s="44"/>
+      <c r="L135" s="44"/>
+      <c r="M135" s="44"/>
+      <c r="N135" s="44"/>
+      <c r="O135" s="44"/>
+      <c r="P135" s="44"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C136" s="35"/>
-      <c r="G136" s="53"/>
-      <c r="H136" s="36"/>
-      <c r="J136" s="55"/>
-      <c r="K136" s="48"/>
-      <c r="L136" s="48"/>
-      <c r="P136" s="40"/>
+      <c r="C136" s="32"/>
+      <c r="G136" s="49"/>
+      <c r="H136" s="33"/>
+      <c r="J136" s="51"/>
+      <c r="K136" s="44"/>
+      <c r="L136" s="44"/>
+      <c r="P136" s="37"/>
     </row>
     <row r="137" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C137" s="35"/>
-      <c r="F137" s="35"/>
-      <c r="I137" s="55"/>
-      <c r="L137" s="40"/>
-      <c r="P137" s="35"/>
+      <c r="C137" s="32"/>
+      <c r="F137" s="32"/>
+      <c r="I137" s="51"/>
+      <c r="L137" s="37"/>
+      <c r="P137" s="32"/>
     </row>
     <row r="138" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="27" t="s">
+      <c r="B138" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C138" s="27" t="s">
+      <c r="C138" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E138" s="27" t="s">
+      <c r="E138" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="F138" s="27" t="s">
+      <c r="F138" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G138" s="27" t="s">
+      <c r="G138" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I138" s="27" t="s">
+      <c r="I138" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J138" s="27" t="s">
+      <c r="J138" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K138" s="27" t="s">
+      <c r="K138" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="M138" s="27" t="s">
+      <c r="M138" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="N138" s="27" t="s">
+      <c r="N138" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="O138" s="27" t="s">
+      <c r="O138" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="Q138" s="27" t="s">
+      <c r="Q138" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="R138" s="27" t="s">
+      <c r="R138" s="24" t="s">
         <v>35</v>
       </c>
       <c r="S138" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="25" t="s">
+    <row r="140" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B140" s="25"/>
-      <c r="C140" s="25"/>
-      <c r="D140" s="25"/>
-      <c r="E140" s="25"/>
-      <c r="F140" s="25"/>
-      <c r="G140" s="25"/>
-      <c r="H140" s="25"/>
-      <c r="I140" s="25"/>
-      <c r="J140" s="25"/>
-      <c r="K140" s="25"/>
-      <c r="L140" s="25"/>
-      <c r="M140" s="25"/>
-      <c r="N140" s="25"/>
-      <c r="O140" s="25"/>
-      <c r="P140" s="25"/>
-      <c r="Q140" s="25"/>
-      <c r="R140" s="25"/>
+      <c r="B140" s="22"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="22"/>
+      <c r="E140" s="22"/>
+      <c r="F140" s="22"/>
+      <c r="G140" s="22"/>
+      <c r="H140" s="22"/>
+      <c r="I140" s="22"/>
+      <c r="J140" s="22"/>
+      <c r="K140" s="22"/>
+      <c r="L140" s="22"/>
+      <c r="M140" s="22"/>
+      <c r="N140" s="22"/>
+      <c r="O140" s="22"/>
+      <c r="P140" s="22"/>
+      <c r="Q140" s="22"/>
+      <c r="R140" s="22"/>
       <c r="S140" s="3"/>
       <c r="T140" s="3"/>
       <c r="U140" s="3"/>
     </row>
     <row r="141" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="142" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D142" s="48"/>
-      <c r="E142" s="48"/>
-      <c r="F142" s="48"/>
-      <c r="G142" s="48"/>
-      <c r="H142" s="28" t="s">
+      <c r="D142" s="44"/>
+      <c r="E142" s="44"/>
+      <c r="F142" s="44"/>
+      <c r="G142" s="44"/>
+      <c r="H142" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I142" s="28" t="s">
+      <c r="I142" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="J142" s="28" t="s">
+      <c r="J142" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K142" s="28" t="s">
+      <c r="K142" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="L142" s="48"/>
-      <c r="M142" s="48"/>
-      <c r="N142" s="48"/>
-      <c r="O142" s="48"/>
-      <c r="P142" s="48"/>
-      <c r="Q142" s="48"/>
-      <c r="S142" s="22"/>
+      <c r="L142" s="44"/>
+      <c r="M142" s="44"/>
+      <c r="N142" s="44"/>
+      <c r="O142" s="44"/>
+      <c r="P142" s="44"/>
+      <c r="Q142" s="44"/>
+      <c r="S142" s="19"/>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C143" s="35"/>
-      <c r="H143" s="53"/>
-      <c r="I143" s="36"/>
-      <c r="K143" s="55"/>
-      <c r="L143" s="48"/>
-      <c r="M143" s="48"/>
-      <c r="Q143" s="40"/>
-      <c r="S143" s="22"/>
+      <c r="C143" s="32"/>
+      <c r="H143" s="49"/>
+      <c r="I143" s="33"/>
+      <c r="K143" s="51"/>
+      <c r="L143" s="44"/>
+      <c r="M143" s="44"/>
+      <c r="Q143" s="37"/>
+      <c r="S143" s="19"/>
     </row>
     <row r="144" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C144" s="35"/>
-      <c r="G144" s="35"/>
-      <c r="J144" s="55"/>
-      <c r="M144" s="40"/>
-      <c r="Q144" s="35"/>
-      <c r="S144" s="22"/>
+      <c r="C144" s="32"/>
+      <c r="G144" s="32"/>
+      <c r="J144" s="51"/>
+      <c r="M144" s="37"/>
+      <c r="Q144" s="32"/>
+      <c r="S144" s="19"/>
     </row>
     <row r="145" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="27" t="s">
+      <c r="B145" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C145" s="27" t="s">
+      <c r="C145" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D145" s="27" t="s">
+      <c r="D145" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F145" s="27" t="s">
+      <c r="F145" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G145" s="27" t="s">
+      <c r="G145" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H145" s="27" t="s">
+      <c r="H145" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J145" s="27" t="s">
+      <c r="J145" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="K145" s="27" t="s">
+      <c r="K145" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L145" s="27" t="s">
+      <c r="L145" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="N145" s="27" t="s">
+      <c r="N145" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="O145" s="27" t="s">
+      <c r="O145" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="P145" s="27" t="s">
+      <c r="P145" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="R145" s="27" t="s">
+      <c r="R145" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="S145" s="27" t="s">
+      <c r="S145" s="24" t="s">
         <v>35</v>
       </c>
       <c r="T145" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="147" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="25" t="s">
+    <row r="147" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B147" s="25"/>
-      <c r="C147" s="25"/>
-      <c r="D147" s="25"/>
-      <c r="E147" s="25"/>
-      <c r="F147" s="25"/>
-      <c r="G147" s="25"/>
-      <c r="H147" s="25"/>
-      <c r="I147" s="25"/>
-      <c r="J147" s="25"/>
-      <c r="K147" s="25"/>
-      <c r="L147" s="25"/>
-      <c r="M147" s="25"/>
-      <c r="N147" s="25"/>
-      <c r="O147" s="25"/>
-      <c r="P147" s="25"/>
-      <c r="Q147" s="25"/>
-      <c r="R147" s="25"/>
+      <c r="B147" s="22"/>
+      <c r="C147" s="22"/>
+      <c r="D147" s="22"/>
+      <c r="E147" s="22"/>
+      <c r="F147" s="22"/>
+      <c r="G147" s="22"/>
+      <c r="H147" s="22"/>
+      <c r="I147" s="22"/>
+      <c r="J147" s="22"/>
+      <c r="K147" s="22"/>
+      <c r="L147" s="22"/>
+      <c r="M147" s="22"/>
+      <c r="N147" s="22"/>
+      <c r="O147" s="22"/>
+      <c r="P147" s="22"/>
+      <c r="Q147" s="22"/>
+      <c r="R147" s="22"/>
       <c r="S147" s="3"/>
       <c r="T147" s="3"/>
       <c r="U147" s="3"/>
     </row>
     <row r="148" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="149" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D149" s="48"/>
-      <c r="E149" s="48"/>
-      <c r="F149" s="48"/>
-      <c r="G149" s="48"/>
-      <c r="H149" s="28" t="s">
+      <c r="D149" s="44"/>
+      <c r="E149" s="44"/>
+      <c r="F149" s="44"/>
+      <c r="G149" s="44"/>
+      <c r="H149" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I149" s="28" t="s">
+      <c r="I149" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="J149" s="28" t="s">
+      <c r="J149" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K149" s="28" t="s">
+      <c r="K149" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="L149" s="48"/>
-      <c r="M149" s="48"/>
-      <c r="N149" s="48"/>
-      <c r="O149" s="48"/>
-      <c r="P149" s="48"/>
-      <c r="Q149" s="48"/>
-      <c r="S149" s="22"/>
+      <c r="L149" s="44"/>
+      <c r="M149" s="44"/>
+      <c r="N149" s="44"/>
+      <c r="O149" s="44"/>
+      <c r="P149" s="44"/>
+      <c r="Q149" s="44"/>
+      <c r="S149" s="19"/>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C150" s="35"/>
-      <c r="H150" s="53"/>
-      <c r="I150" s="36"/>
-      <c r="K150" s="55"/>
-      <c r="L150" s="48"/>
-      <c r="M150" s="48"/>
-      <c r="Q150" s="40"/>
-      <c r="S150" s="22"/>
+      <c r="C150" s="32"/>
+      <c r="H150" s="49"/>
+      <c r="I150" s="33"/>
+      <c r="K150" s="51"/>
+      <c r="L150" s="44"/>
+      <c r="M150" s="44"/>
+      <c r="Q150" s="37"/>
+      <c r="S150" s="19"/>
     </row>
     <row r="151" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C151" s="35"/>
-      <c r="G151" s="35"/>
-      <c r="J151" s="55"/>
-      <c r="M151" s="40"/>
-      <c r="Q151" s="35"/>
-      <c r="S151" s="22"/>
+      <c r="C151" s="32"/>
+      <c r="G151" s="32"/>
+      <c r="J151" s="51"/>
+      <c r="M151" s="37"/>
+      <c r="Q151" s="32"/>
+      <c r="S151" s="19"/>
     </row>
     <row r="152" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="27" t="s">
+      <c r="B152" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C152" s="27" t="s">
+      <c r="C152" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D152" s="27" t="s">
+      <c r="D152" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F152" s="27" t="s">
+      <c r="F152" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G152" s="27" t="s">
+      <c r="G152" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H152" s="27" t="s">
+      <c r="H152" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J152" s="27" t="s">
+      <c r="J152" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="K152" s="27" t="s">
+      <c r="K152" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L152" s="27" t="s">
+      <c r="L152" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="N152" s="27" t="s">
+      <c r="N152" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="O152" s="27" t="s">
+      <c r="O152" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="P152" s="27" t="s">
+      <c r="P152" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="R152" s="27" t="s">
+      <c r="R152" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="S152" s="27" t="s">
+      <c r="S152" s="24" t="s">
         <v>55</v>
       </c>
       <c r="T152" s="2" t="s">
@@ -4128,28 +4041,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="33"/>
-      <c r="B154" s="33"/>
-      <c r="C154" s="33"/>
-      <c r="D154" s="33"/>
-      <c r="E154" s="33"/>
-      <c r="F154" s="33"/>
-      <c r="G154" s="33"/>
-      <c r="H154" s="33"/>
-      <c r="I154" s="33"/>
-      <c r="J154" s="33"/>
-      <c r="K154" s="33"/>
-      <c r="L154" s="33"/>
-      <c r="M154" s="33"/>
-      <c r="N154" s="33"/>
-      <c r="O154" s="33"/>
-      <c r="P154" s="33"/>
-      <c r="Q154" s="33"/>
-      <c r="R154" s="33"/>
-      <c r="S154" s="20"/>
-      <c r="T154" s="20"/>
-      <c r="U154" s="20"/>
+    <row r="154" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="30"/>
+      <c r="B154" s="30"/>
+      <c r="C154" s="30"/>
+      <c r="D154" s="30"/>
+      <c r="E154" s="30"/>
+      <c r="F154" s="30"/>
+      <c r="G154" s="30"/>
+      <c r="H154" s="30"/>
+      <c r="I154" s="30"/>
+      <c r="J154" s="30"/>
+      <c r="K154" s="30"/>
+      <c r="L154" s="30"/>
+      <c r="M154" s="30"/>
+      <c r="N154" s="30"/>
+      <c r="O154" s="30"/>
+      <c r="P154" s="30"/>
+      <c r="Q154" s="30"/>
+      <c r="R154" s="30"/>
+      <c r="S154" s="18"/>
+      <c r="T154" s="18"/>
+      <c r="U154" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4158,11 +4071,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL229"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AL200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="E232" sqref="E232"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A205" sqref="A199:XFD205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4171,18 +4084,18 @@
     <col min="2" max="38" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:38" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+    <row r="2" spans="1:38" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:38" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>58</v>
       </c>
@@ -4230,7 +4143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4281,7 +4194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -4335,7 +4248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -4392,7 +4305,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
@@ -4476,7 +4389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>60</v>
       </c>
@@ -4545,7 +4458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>61</v>
       </c>
@@ -4617,7 +4530,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>1</v>
       </c>
@@ -4694,19 +4607,19 @@
     </row>
     <row r="56" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="13"/>
+      <c r="D57" s="12"/>
       <c r="E57" s="4">
         <v>11</v>
       </c>
       <c r="F57" s="4">
         <v>14</v>
       </c>
-      <c r="G57" s="17"/>
+      <c r="G57" s="15"/>
     </row>
     <row r="58" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C58" s="7"/>
-      <c r="E58" s="14"/>
-      <c r="G58" s="18"/>
+      <c r="E58" s="13"/>
+      <c r="G58" s="16"/>
     </row>
     <row r="59" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="2">
@@ -4728,7 +4641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>62</v>
       </c>
@@ -4772,19 +4685,19 @@
     </row>
     <row r="62" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="12"/>
+      <c r="E63" s="11"/>
       <c r="F63" s="4">
         <v>11</v>
       </c>
       <c r="G63" s="4">
         <v>14</v>
       </c>
-      <c r="H63" s="12"/>
+      <c r="H63" s="11"/>
     </row>
     <row r="64" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D64" s="9"/>
       <c r="F64" s="9"/>
-      <c r="H64" s="18"/>
+      <c r="H64" s="16"/>
     </row>
     <row r="65" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
@@ -4809,7 +4722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>5</v>
       </c>
@@ -4853,19 +4766,19 @@
     </row>
     <row r="68" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="13"/>
+      <c r="E69" s="12"/>
       <c r="F69" s="4">
         <v>11</v>
       </c>
       <c r="G69" s="4">
         <v>14</v>
       </c>
-      <c r="H69" s="17"/>
+      <c r="H69" s="15"/>
     </row>
     <row r="70" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D70" s="7"/>
-      <c r="F70" s="14"/>
-      <c r="H70" s="18"/>
+      <c r="F70" s="13"/>
+      <c r="H70" s="16"/>
     </row>
     <row r="71" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="2">
@@ -4893,7 +4806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>11</v>
       </c>
@@ -4937,19 +4850,19 @@
     </row>
     <row r="74" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="75" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="12"/>
+      <c r="E75" s="11"/>
       <c r="F75" s="4">
         <v>11</v>
       </c>
       <c r="G75" s="4">
         <v>14</v>
       </c>
-      <c r="H75" s="12"/>
+      <c r="H75" s="11"/>
     </row>
     <row r="76" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D76" s="9"/>
       <c r="F76" s="9"/>
-      <c r="H76" s="18"/>
+      <c r="H76" s="16"/>
     </row>
     <row r="77" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="2">
@@ -4980,7 +4893,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>8</v>
       </c>
@@ -5024,19 +4937,19 @@
     </row>
     <row r="80" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="81" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="13"/>
+      <c r="E81" s="12"/>
       <c r="F81" s="4">
         <v>11</v>
       </c>
       <c r="G81" s="4">
         <v>14</v>
       </c>
-      <c r="H81" s="17"/>
+      <c r="H81" s="15"/>
     </row>
     <row r="82" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="7"/>
-      <c r="F82" s="14"/>
-      <c r="H82" s="18"/>
+      <c r="F82" s="13"/>
+      <c r="H82" s="16"/>
     </row>
     <row r="83" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="2">
@@ -5072,8 +4985,8 @@
     </row>
     <row r="89" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
       <c r="G90" s="4">
         <v>11</v>
       </c>
@@ -5083,15 +4996,14 @@
       <c r="I90" s="4">
         <v>18</v>
       </c>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
     </row>
     <row r="91" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D91" s="9"/>
-      <c r="G91" s="59"/>
-      <c r="H91" s="42"/>
-      <c r="I91" s="60"/>
-      <c r="K91" s="18"/>
+      <c r="G91" s="55"/>
+      <c r="I91" s="56"/>
+      <c r="K91" s="16"/>
     </row>
     <row r="92" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="2">
@@ -5122,7 +5034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>63</v>
       </c>
@@ -5166,8 +5078,8 @@
     </row>
     <row r="95" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="96" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F96" s="12"/>
-      <c r="G96" s="13"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="12"/>
       <c r="H96" s="4">
         <v>11</v>
       </c>
@@ -5177,14 +5089,14 @@
       <c r="J96" s="4">
         <v>18</v>
       </c>
-      <c r="K96" s="17"/>
-      <c r="L96" s="12"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="11"/>
     </row>
     <row r="97" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E97" s="7"/>
-      <c r="H97" s="45"/>
-      <c r="J97" s="16"/>
-      <c r="L97" s="18"/>
+      <c r="H97" s="41"/>
+      <c r="J97" s="14"/>
+      <c r="L97" s="16"/>
     </row>
     <row r="98" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="2">
@@ -5218,7 +5130,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>7</v>
       </c>
@@ -5262,8 +5174,8 @@
     </row>
     <row r="101" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="102" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
       <c r="I102" s="4">
         <v>11</v>
       </c>
@@ -5273,20 +5185,20 @@
       <c r="K102" s="4">
         <v>18</v>
       </c>
-      <c r="L102" s="12"/>
-      <c r="M102" s="12"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
     </row>
     <row r="103" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F103" s="9"/>
-      <c r="I103" s="59"/>
-      <c r="K103" s="60"/>
-      <c r="M103" s="18"/>
+      <c r="I103" s="55"/>
+      <c r="K103" s="56"/>
+      <c r="M103" s="16"/>
     </row>
     <row r="104" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="2">
         <v>1</v>
       </c>
-      <c r="C104" s="6">
+      <c r="C104" s="59">
         <v>4</v>
       </c>
       <c r="D104" s="2">
@@ -5319,9 +5231,9 @@
     </row>
     <row r="110" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="111" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="13"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="12"/>
       <c r="G111" s="4">
         <v>6</v>
       </c>
@@ -5334,22 +5246,22 @@
       <c r="J111" s="4">
         <v>18</v>
       </c>
-      <c r="K111" s="17"/>
-      <c r="L111" s="12"/>
-      <c r="M111" s="12"/>
+      <c r="K111" s="15"/>
+      <c r="L111" s="11"/>
+      <c r="M111" s="11"/>
     </row>
     <row r="112" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C112" s="7"/>
-      <c r="G112" s="61"/>
-      <c r="H112" s="14"/>
-      <c r="J112" s="41"/>
-      <c r="M112" s="18"/>
+      <c r="G112" s="57"/>
+      <c r="H112" s="13"/>
+      <c r="J112" s="38"/>
+      <c r="M112" s="16"/>
     </row>
     <row r="113" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="2">
         <v>1</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C113" s="61">
         <v>4</v>
       </c>
       <c r="E113" s="2">
@@ -5377,7 +5289,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>3</v>
       </c>
@@ -5421,10 +5333,10 @@
     </row>
     <row r="117" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="118" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="13"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="12"/>
       <c r="H118" s="4">
         <v>6</v>
       </c>
@@ -5437,22 +5349,22 @@
       <c r="K118" s="4">
         <v>18</v>
       </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="12"/>
-      <c r="N118" s="12"/>
+      <c r="L118" s="15"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="11"/>
     </row>
     <row r="119" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C119" s="7"/>
-      <c r="H119" s="61"/>
-      <c r="I119" s="14"/>
-      <c r="K119" s="41"/>
-      <c r="N119" s="18"/>
+      <c r="H119" s="57"/>
+      <c r="I119" s="13"/>
+      <c r="K119" s="38"/>
+      <c r="N119" s="16"/>
     </row>
     <row r="120" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B120" s="2">
         <v>1</v>
       </c>
-      <c r="C120" s="21">
+      <c r="C120" s="2">
         <v>3</v>
       </c>
       <c r="D120" s="2">
@@ -5483,7 +5395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>64</v>
       </c>
@@ -5527,10 +5439,10 @@
     </row>
     <row r="123" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="124" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E124" s="12"/>
-      <c r="F124" s="12"/>
-      <c r="G124" s="12"/>
-      <c r="H124" s="13"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="12"/>
       <c r="I124" s="4">
         <v>6</v>
       </c>
@@ -5543,16 +5455,16 @@
       <c r="L124" s="4">
         <v>18</v>
       </c>
-      <c r="M124" s="17"/>
-      <c r="N124" s="12"/>
-      <c r="O124" s="12"/>
+      <c r="M124" s="15"/>
+      <c r="N124" s="11"/>
+      <c r="O124" s="11"/>
     </row>
     <row r="125" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D125" s="7"/>
-      <c r="I125" s="61"/>
-      <c r="J125" s="14"/>
-      <c r="L125" s="41"/>
-      <c r="O125" s="18"/>
+      <c r="I125" s="57"/>
+      <c r="J125" s="13"/>
+      <c r="L125" s="38"/>
+      <c r="O125" s="16"/>
     </row>
     <row r="126" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B126" s="2">
@@ -5561,7 +5473,7 @@
       <c r="C126" s="2">
         <v>2</v>
       </c>
-      <c r="D126" s="21">
+      <c r="D126" s="2">
         <v>3</v>
       </c>
       <c r="E126" s="2">
@@ -5592,8 +5504,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="62" t="s">
+    <row r="128" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B128" s="3"/>
@@ -5634,86 +5546,238 @@
       <c r="AK128" s="3"/>
       <c r="AL128" s="3"/>
     </row>
-    <row r="129" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E130" s="12"/>
-      <c r="F130" s="12"/>
-      <c r="G130" s="12"/>
+    <row r="129" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
       <c r="H130" s="12"/>
-      <c r="I130" s="13"/>
+      <c r="I130" s="4">
+        <v>6</v>
+      </c>
       <c r="J130" s="4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K130" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L130" s="4">
-        <v>14</v>
-      </c>
-      <c r="M130" s="4">
         <v>18</v>
       </c>
-      <c r="N130" s="17"/>
-      <c r="O130" s="12"/>
-      <c r="P130" s="12"/>
-    </row>
-    <row r="131" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M130" s="15"/>
+      <c r="N130" s="11"/>
+      <c r="O130" s="11"/>
+      <c r="U130"/>
+      <c r="V130"/>
+      <c r="W130"/>
+      <c r="X130"/>
+      <c r="Y130"/>
+      <c r="Z130"/>
+      <c r="AA130"/>
+      <c r="AB130"/>
+      <c r="AC130"/>
+      <c r="AD130"/>
+      <c r="AE130"/>
+      <c r="AF130"/>
+      <c r="AG130"/>
+      <c r="AH130"/>
+      <c r="AI130"/>
+      <c r="AJ130"/>
+      <c r="AK130"/>
+      <c r="AL130"/>
+    </row>
+    <row r="131" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D131" s="7"/>
-      <c r="J131" s="61"/>
-      <c r="K131" s="14"/>
-      <c r="M131" s="41"/>
-      <c r="P131" s="18"/>
-    </row>
-    <row r="132" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I131" s="57"/>
+      <c r="J131" s="13"/>
+      <c r="L131" s="38"/>
+      <c r="O131" s="16"/>
+      <c r="U131"/>
+      <c r="V131"/>
+      <c r="W131"/>
+      <c r="X131"/>
+      <c r="Y131"/>
+      <c r="Z131"/>
+      <c r="AA131"/>
+      <c r="AB131"/>
+      <c r="AC131"/>
+      <c r="AD131"/>
+      <c r="AE131"/>
+      <c r="AF131"/>
+      <c r="AG131"/>
+      <c r="AH131"/>
+      <c r="AI131"/>
+      <c r="AJ131"/>
+      <c r="AK131"/>
+      <c r="AL131"/>
+    </row>
+    <row r="132" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B132" s="2">
         <v>1</v>
       </c>
       <c r="C132" s="2">
         <v>2</v>
       </c>
-      <c r="D132" s="21">
+      <c r="D132" s="2">
         <v>3</v>
       </c>
-      <c r="E132" s="6">
+      <c r="E132" s="2">
         <v>4</v>
       </c>
-      <c r="F132" s="2">
-        <v>4</v>
+      <c r="G132" s="2">
+        <v>7</v>
       </c>
       <c r="H132" s="2">
-        <v>7</v>
-      </c>
-      <c r="I132" s="2">
         <v>10</v>
       </c>
+      <c r="J132" s="2">
+        <v>12</v>
+      </c>
       <c r="K132" s="2">
-        <v>12</v>
-      </c>
-      <c r="L132" s="2">
         <v>13</v>
       </c>
+      <c r="M132" s="2">
+        <v>15</v>
+      </c>
       <c r="N132" s="2">
-        <v>15</v>
-      </c>
-      <c r="O132" s="2">
         <v>16</v>
       </c>
+      <c r="P132" s="2">
+        <v>19</v>
+      </c>
       <c r="Q132" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R132" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="138" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="139" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D139" s="12"/>
-      <c r="E139" s="12"/>
-      <c r="F139" s="12"/>
-      <c r="G139" s="12"/>
-      <c r="H139" s="6">
-        <v>3</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="U132"/>
+      <c r="V132"/>
+      <c r="W132"/>
+      <c r="X132"/>
+      <c r="Y132"/>
+      <c r="Z132"/>
+      <c r="AA132"/>
+      <c r="AB132"/>
+      <c r="AC132"/>
+      <c r="AD132"/>
+      <c r="AE132"/>
+      <c r="AF132"/>
+      <c r="AG132"/>
+      <c r="AH132"/>
+      <c r="AI132"/>
+      <c r="AJ132"/>
+      <c r="AK132"/>
+      <c r="AL132"/>
+    </row>
+    <row r="133" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="U133"/>
+      <c r="V133"/>
+      <c r="W133"/>
+      <c r="X133"/>
+      <c r="Y133"/>
+      <c r="Z133"/>
+      <c r="AA133"/>
+      <c r="AB133"/>
+      <c r="AC133"/>
+      <c r="AD133"/>
+      <c r="AE133"/>
+      <c r="AF133"/>
+      <c r="AG133"/>
+      <c r="AH133"/>
+      <c r="AI133"/>
+      <c r="AJ133"/>
+      <c r="AK133"/>
+      <c r="AL133"/>
+    </row>
+    <row r="134" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="U134"/>
+      <c r="V134"/>
+      <c r="W134"/>
+      <c r="X134"/>
+      <c r="Y134"/>
+      <c r="Z134"/>
+      <c r="AA134"/>
+      <c r="AB134"/>
+      <c r="AC134"/>
+      <c r="AD134"/>
+      <c r="AE134"/>
+      <c r="AF134"/>
+      <c r="AG134"/>
+      <c r="AH134"/>
+      <c r="AI134"/>
+      <c r="AJ134"/>
+      <c r="AK134"/>
+      <c r="AL134"/>
+    </row>
+    <row r="135" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="U135"/>
+      <c r="V135"/>
+      <c r="W135"/>
+      <c r="X135"/>
+      <c r="Y135"/>
+      <c r="Z135"/>
+      <c r="AA135"/>
+      <c r="AB135"/>
+      <c r="AC135"/>
+      <c r="AD135"/>
+      <c r="AE135"/>
+      <c r="AF135"/>
+      <c r="AG135"/>
+      <c r="AH135"/>
+      <c r="AI135"/>
+      <c r="AJ135"/>
+      <c r="AK135"/>
+      <c r="AL135"/>
+    </row>
+    <row r="137" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+      <c r="K137" s="3"/>
+      <c r="L137" s="3"/>
+      <c r="M137" s="3"/>
+      <c r="N137" s="3"/>
+      <c r="O137" s="3"/>
+      <c r="P137" s="3"/>
+      <c r="Q137" s="3"/>
+      <c r="R137" s="3"/>
+      <c r="S137" s="3"/>
+      <c r="T137" s="3"/>
+      <c r="U137" s="3"/>
+      <c r="V137" s="3"/>
+      <c r="W137" s="3"/>
+      <c r="X137" s="3"/>
+      <c r="Y137" s="3"/>
+      <c r="Z137" s="3"/>
+      <c r="AA137" s="3"/>
+      <c r="AB137" s="3"/>
+      <c r="AC137" s="3"/>
+      <c r="AD137" s="3"/>
+      <c r="AE137" s="3"/>
+      <c r="AF137" s="3"/>
+      <c r="AG137" s="3"/>
+      <c r="AH137" s="3"/>
+      <c r="AI137" s="3"/>
+      <c r="AJ137" s="3"/>
+      <c r="AK137" s="3"/>
+      <c r="AL137" s="3"/>
+    </row>
+    <row r="138" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="12"/>
       <c r="I139" s="4">
         <v>6</v>
       </c>
@@ -5726,1075 +5790,1538 @@
       <c r="L139" s="4">
         <v>18</v>
       </c>
-      <c r="M139" s="12"/>
-      <c r="N139" s="12"/>
-      <c r="O139" s="12"/>
-      <c r="P139" s="12"/>
-    </row>
-    <row r="140" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C140" s="9"/>
-      <c r="H140" s="59"/>
-      <c r="I140" s="9"/>
-      <c r="J140" s="10"/>
-      <c r="L140" s="60"/>
-      <c r="P140" s="18"/>
-    </row>
-    <row r="141" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C141" s="9"/>
-      <c r="G141" s="59"/>
-      <c r="I141" s="9"/>
-      <c r="J141" s="10"/>
-      <c r="M141" s="60"/>
-      <c r="P141" s="9"/>
-    </row>
-    <row r="142" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="2">
+      <c r="M139" s="15"/>
+      <c r="N139" s="11"/>
+      <c r="O139" s="11"/>
+      <c r="T139"/>
+      <c r="U139"/>
+      <c r="V139"/>
+      <c r="W139"/>
+      <c r="X139"/>
+      <c r="Y139"/>
+      <c r="Z139"/>
+      <c r="AA139"/>
+      <c r="AB139"/>
+      <c r="AC139"/>
+      <c r="AD139"/>
+      <c r="AE139"/>
+      <c r="AF139"/>
+      <c r="AG139"/>
+      <c r="AH139"/>
+      <c r="AI139"/>
+      <c r="AJ139"/>
+      <c r="AK139"/>
+      <c r="AL139"/>
+    </row>
+    <row r="140" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D140" s="7"/>
+      <c r="I140" s="57"/>
+      <c r="J140" s="13"/>
+      <c r="L140" s="38"/>
+      <c r="O140" s="16"/>
+      <c r="T140"/>
+      <c r="U140"/>
+      <c r="V140"/>
+      <c r="W140"/>
+      <c r="X140"/>
+      <c r="Y140"/>
+      <c r="Z140"/>
+      <c r="AA140"/>
+      <c r="AB140"/>
+      <c r="AC140"/>
+      <c r="AD140"/>
+      <c r="AE140"/>
+      <c r="AF140"/>
+      <c r="AG140"/>
+      <c r="AH140"/>
+      <c r="AI140"/>
+      <c r="AJ140"/>
+      <c r="AK140"/>
+      <c r="AL140"/>
+    </row>
+    <row r="141" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="2">
         <v>1</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C141" s="2">
         <v>2</v>
       </c>
-      <c r="E142" s="2">
+      <c r="D141" s="2">
+        <v>3</v>
+      </c>
+      <c r="E141" s="2">
         <v>4</v>
       </c>
-      <c r="F142" s="2">
-        <v>4</v>
-      </c>
-      <c r="H142" s="2">
+      <c r="G141" s="2">
         <v>7</v>
       </c>
-      <c r="I142" s="2">
+      <c r="H141" s="2">
         <v>10</v>
       </c>
-      <c r="K142" s="2">
+      <c r="J141" s="2">
         <v>12</v>
       </c>
-      <c r="L142" s="2">
+      <c r="K141" s="2">
         <v>13</v>
       </c>
-      <c r="N142" s="2">
+      <c r="M141" s="2">
         <v>15</v>
       </c>
-      <c r="O142" s="2">
+      <c r="N141" s="2">
         <v>16</v>
       </c>
-      <c r="Q142" s="2">
+      <c r="P141" s="2">
         <v>19</v>
       </c>
-      <c r="R142" s="2">
+      <c r="Q141" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="148" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="R141" s="2">
+        <v>22</v>
+      </c>
+      <c r="S141" s="2">
+        <v>28</v>
+      </c>
+      <c r="T141"/>
+      <c r="U141"/>
+      <c r="V141"/>
+      <c r="W141"/>
+      <c r="X141"/>
+      <c r="Y141"/>
+      <c r="Z141"/>
+      <c r="AA141"/>
+      <c r="AB141"/>
+      <c r="AC141"/>
+      <c r="AD141"/>
+      <c r="AE141"/>
+      <c r="AF141"/>
+      <c r="AG141"/>
+      <c r="AH141"/>
+      <c r="AI141"/>
+      <c r="AJ141"/>
+      <c r="AK141"/>
+      <c r="AL141"/>
+    </row>
+    <row r="142" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="T142"/>
+      <c r="U142"/>
+      <c r="V142"/>
+      <c r="W142"/>
+      <c r="X142"/>
+      <c r="Y142"/>
+      <c r="Z142"/>
+      <c r="AA142"/>
+      <c r="AB142"/>
+      <c r="AC142"/>
+      <c r="AD142"/>
+      <c r="AE142"/>
+      <c r="AF142"/>
+      <c r="AG142"/>
+      <c r="AH142"/>
+      <c r="AI142"/>
+      <c r="AJ142"/>
+      <c r="AK142"/>
+      <c r="AL142"/>
+    </row>
+    <row r="144" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A144" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="146" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B146" s="17"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="17"/>
+      <c r="G146" s="17"/>
+      <c r="H146" s="17"/>
+      <c r="I146" s="17"/>
+      <c r="J146" s="17"/>
+      <c r="K146" s="17"/>
+      <c r="L146" s="17"/>
+      <c r="M146" s="17"/>
+      <c r="N146" s="17"/>
+      <c r="O146" s="17"/>
+      <c r="P146" s="17"/>
+      <c r="Q146" s="17"/>
+      <c r="R146" s="17"/>
+      <c r="S146" s="17"/>
+      <c r="T146" s="17"/>
+      <c r="U146" s="17"/>
+      <c r="V146" s="17"/>
+      <c r="W146" s="17"/>
+      <c r="X146" s="17"/>
+      <c r="Y146" s="17"/>
+      <c r="Z146" s="17"/>
+      <c r="AA146" s="17"/>
+      <c r="AB146" s="17"/>
+      <c r="AC146" s="17"/>
+      <c r="AD146" s="17"/>
+      <c r="AE146" s="17"/>
+      <c r="AF146" s="17"/>
+      <c r="AG146" s="17"/>
+      <c r="AH146" s="17"/>
+      <c r="AI146" s="17"/>
+      <c r="AJ146" s="17"/>
+      <c r="AK146" s="17"/>
+      <c r="AL146" s="17"/>
+    </row>
+    <row r="148" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U148"/>
+      <c r="V148"/>
+      <c r="W148"/>
+      <c r="X148"/>
+      <c r="Y148"/>
+      <c r="Z148"/>
+      <c r="AA148"/>
+      <c r="AB148"/>
+      <c r="AC148"/>
+      <c r="AD148"/>
+      <c r="AE148"/>
+      <c r="AF148"/>
+      <c r="AG148"/>
+      <c r="AH148"/>
+      <c r="AI148"/>
+      <c r="AJ148"/>
+      <c r="AK148"/>
+      <c r="AL148"/>
+    </row>
     <row r="149" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="4">
+        <v>6</v>
+      </c>
       <c r="J149" s="4">
         <v>11</v>
       </c>
+      <c r="K149" s="4">
+        <v>14</v>
+      </c>
+      <c r="L149" s="4">
+        <v>18</v>
+      </c>
+      <c r="M149" s="15"/>
+      <c r="N149" s="11"/>
+      <c r="O149" s="11"/>
+      <c r="U149"/>
+      <c r="V149"/>
+      <c r="W149"/>
+      <c r="X149"/>
+      <c r="Y149"/>
+      <c r="Z149"/>
+      <c r="AA149"/>
+      <c r="AB149"/>
+      <c r="AC149"/>
+      <c r="AD149"/>
+      <c r="AE149"/>
+      <c r="AF149"/>
+      <c r="AG149"/>
+      <c r="AH149"/>
+      <c r="AI149"/>
+      <c r="AJ149"/>
+      <c r="AK149"/>
+      <c r="AL149"/>
     </row>
     <row r="150" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I150" s="9"/>
-      <c r="J150" s="8"/>
+      <c r="D150" s="7"/>
+      <c r="I150" s="57"/>
+      <c r="J150" s="13"/>
+      <c r="L150" s="38"/>
+      <c r="O150" s="16"/>
+      <c r="U150"/>
+      <c r="V150"/>
+      <c r="W150"/>
+      <c r="X150"/>
+      <c r="Y150"/>
+      <c r="Z150"/>
+      <c r="AA150"/>
+      <c r="AB150"/>
+      <c r="AC150"/>
+      <c r="AD150"/>
+      <c r="AE150"/>
+      <c r="AF150"/>
+      <c r="AG150"/>
+      <c r="AH150"/>
+      <c r="AI150"/>
+      <c r="AJ150"/>
+      <c r="AK150"/>
+      <c r="AL150"/>
     </row>
     <row r="151" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="12"/>
-      <c r="G151" s="13"/>
-      <c r="H151" s="5">
+      <c r="B151" s="2">
+        <v>1</v>
+      </c>
+      <c r="C151" s="2">
+        <v>2</v>
+      </c>
+      <c r="D151" s="2">
         <v>3</v>
       </c>
-      <c r="I151" s="15">
+      <c r="E151" s="2">
+        <v>4</v>
+      </c>
+      <c r="G151" s="2">
+        <v>7</v>
+      </c>
+      <c r="H151" s="2">
+        <v>10</v>
+      </c>
+      <c r="J151" s="2">
+        <v>12</v>
+      </c>
+      <c r="K151" s="2">
+        <v>13</v>
+      </c>
+      <c r="M151" s="2">
+        <v>15</v>
+      </c>
+      <c r="N151" s="2">
+        <v>16</v>
+      </c>
+      <c r="P151" s="2">
+        <v>21</v>
+      </c>
+      <c r="Q151" s="2">
+        <v>22</v>
+      </c>
+      <c r="R151" s="2">
+        <v>28</v>
+      </c>
+      <c r="U151"/>
+      <c r="V151"/>
+      <c r="W151"/>
+      <c r="X151"/>
+      <c r="Y151"/>
+      <c r="Z151"/>
+      <c r="AA151"/>
+      <c r="AB151"/>
+      <c r="AC151"/>
+      <c r="AD151"/>
+      <c r="AE151"/>
+      <c r="AF151"/>
+      <c r="AG151"/>
+      <c r="AH151"/>
+      <c r="AI151"/>
+      <c r="AJ151"/>
+      <c r="AK151"/>
+      <c r="AL151"/>
+    </row>
+    <row r="152" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="U152"/>
+      <c r="V152"/>
+      <c r="W152"/>
+      <c r="X152"/>
+      <c r="Y152"/>
+      <c r="Z152"/>
+      <c r="AA152"/>
+      <c r="AB152"/>
+      <c r="AC152"/>
+      <c r="AD152"/>
+      <c r="AE152"/>
+      <c r="AF152"/>
+      <c r="AG152"/>
+      <c r="AH152"/>
+      <c r="AI152"/>
+      <c r="AJ152"/>
+      <c r="AK152"/>
+      <c r="AL152"/>
+    </row>
+    <row r="153" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="U153"/>
+      <c r="V153"/>
+      <c r="W153"/>
+      <c r="X153"/>
+      <c r="Y153"/>
+      <c r="Z153"/>
+      <c r="AA153"/>
+      <c r="AB153"/>
+      <c r="AC153"/>
+      <c r="AD153"/>
+      <c r="AE153"/>
+      <c r="AF153"/>
+      <c r="AG153"/>
+      <c r="AH153"/>
+      <c r="AI153"/>
+      <c r="AJ153"/>
+      <c r="AK153"/>
+      <c r="AL153"/>
+    </row>
+    <row r="155" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B155" s="17"/>
+      <c r="C155" s="17"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="17"/>
+      <c r="F155" s="17"/>
+      <c r="G155" s="17"/>
+      <c r="H155" s="17"/>
+      <c r="I155" s="17"/>
+      <c r="J155" s="17"/>
+      <c r="K155" s="17"/>
+      <c r="L155" s="17"/>
+      <c r="M155" s="17"/>
+      <c r="N155" s="17"/>
+      <c r="O155" s="17"/>
+      <c r="P155" s="17"/>
+      <c r="Q155" s="17"/>
+      <c r="R155" s="17"/>
+      <c r="S155" s="17"/>
+      <c r="T155" s="17"/>
+      <c r="U155" s="17"/>
+      <c r="V155" s="17"/>
+      <c r="W155" s="17"/>
+      <c r="X155" s="17"/>
+      <c r="Y155" s="17"/>
+      <c r="Z155" s="17"/>
+      <c r="AA155" s="17"/>
+      <c r="AB155" s="17"/>
+      <c r="AC155" s="17"/>
+      <c r="AD155" s="17"/>
+      <c r="AE155" s="17"/>
+      <c r="AF155" s="17"/>
+      <c r="AG155" s="17"/>
+      <c r="AH155" s="17"/>
+      <c r="AI155" s="17"/>
+      <c r="AJ155" s="17"/>
+      <c r="AK155" s="17"/>
+      <c r="AL155" s="17"/>
+    </row>
+    <row r="156" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="157" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="4">
         <v>6</v>
       </c>
-      <c r="J151" s="10"/>
-      <c r="K151" s="11">
+      <c r="J157" s="4">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4">
         <v>14</v>
       </c>
-      <c r="L151" s="2">
+      <c r="L157" s="4">
         <v>18</v>
       </c>
-      <c r="M151" s="17"/>
-      <c r="N151" s="12"/>
-      <c r="O151" s="12"/>
-      <c r="P151" s="12"/>
-    </row>
-    <row r="152" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C152" s="9"/>
-      <c r="H152" s="61"/>
-      <c r="I152" s="9"/>
-      <c r="J152" s="10"/>
-      <c r="L152" s="41"/>
-      <c r="P152" s="18"/>
-    </row>
-    <row r="153" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C153" s="7"/>
-      <c r="G153" s="59"/>
-      <c r="I153" s="7"/>
-      <c r="J153" s="10"/>
-      <c r="M153" s="60"/>
-      <c r="P153" s="9"/>
-    </row>
-    <row r="154" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="2">
+      <c r="M157" s="15"/>
+      <c r="N157" s="11"/>
+      <c r="O157" s="11"/>
+      <c r="V157"/>
+      <c r="W157"/>
+      <c r="X157"/>
+      <c r="Y157"/>
+      <c r="Z157"/>
+      <c r="AA157"/>
+      <c r="AB157"/>
+      <c r="AC157"/>
+      <c r="AD157"/>
+      <c r="AE157"/>
+      <c r="AF157"/>
+      <c r="AG157"/>
+      <c r="AH157"/>
+      <c r="AI157"/>
+      <c r="AJ157"/>
+      <c r="AK157"/>
+      <c r="AL157"/>
+    </row>
+    <row r="158" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D158" s="7"/>
+      <c r="I158" s="57"/>
+      <c r="J158" s="13"/>
+      <c r="L158" s="38"/>
+      <c r="O158" s="16"/>
+      <c r="V158"/>
+      <c r="W158"/>
+      <c r="X158"/>
+      <c r="Y158"/>
+      <c r="Z158"/>
+      <c r="AA158"/>
+      <c r="AB158"/>
+      <c r="AC158"/>
+      <c r="AD158"/>
+      <c r="AE158"/>
+      <c r="AF158"/>
+      <c r="AG158"/>
+      <c r="AH158"/>
+      <c r="AI158"/>
+      <c r="AJ158"/>
+      <c r="AK158"/>
+      <c r="AL158"/>
+    </row>
+    <row r="159" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="2">
         <v>1</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C159" s="2">
         <v>2</v>
       </c>
-      <c r="E154" s="2">
+      <c r="D159" s="2">
+        <v>3</v>
+      </c>
+      <c r="E159" s="2">
         <v>4</v>
       </c>
-      <c r="F154" s="2">
+      <c r="G159" s="2">
+        <v>7</v>
+      </c>
+      <c r="H159" s="59">
+        <v>10</v>
+      </c>
+      <c r="J159" s="2">
+        <v>12</v>
+      </c>
+      <c r="K159" s="2">
+        <v>13</v>
+      </c>
+      <c r="M159" s="2">
+        <v>15</v>
+      </c>
+      <c r="N159" s="2">
+        <v>16</v>
+      </c>
+      <c r="P159" s="2">
+        <v>21</v>
+      </c>
+      <c r="Q159" s="2">
+        <v>22</v>
+      </c>
+      <c r="R159" s="2">
+        <v>28</v>
+      </c>
+      <c r="V159"/>
+      <c r="W159"/>
+      <c r="X159"/>
+      <c r="Y159"/>
+      <c r="Z159"/>
+      <c r="AA159"/>
+      <c r="AB159"/>
+      <c r="AC159"/>
+      <c r="AD159"/>
+      <c r="AE159"/>
+      <c r="AF159"/>
+      <c r="AG159"/>
+      <c r="AH159"/>
+      <c r="AI159"/>
+      <c r="AJ159"/>
+      <c r="AK159"/>
+      <c r="AL159"/>
+    </row>
+    <row r="160" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="V160"/>
+      <c r="W160"/>
+      <c r="X160"/>
+      <c r="Y160"/>
+      <c r="Z160"/>
+      <c r="AA160"/>
+      <c r="AB160"/>
+      <c r="AC160"/>
+      <c r="AD160"/>
+      <c r="AE160"/>
+      <c r="AF160"/>
+      <c r="AG160"/>
+      <c r="AH160"/>
+      <c r="AI160"/>
+      <c r="AJ160"/>
+      <c r="AK160"/>
+      <c r="AL160"/>
+    </row>
+    <row r="161" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="V161"/>
+      <c r="W161"/>
+      <c r="X161"/>
+      <c r="Y161"/>
+      <c r="Z161"/>
+      <c r="AA161"/>
+      <c r="AB161"/>
+      <c r="AC161"/>
+      <c r="AD161"/>
+      <c r="AE161"/>
+      <c r="AF161"/>
+      <c r="AG161"/>
+      <c r="AH161"/>
+      <c r="AI161"/>
+      <c r="AJ161"/>
+      <c r="AK161"/>
+      <c r="AL161"/>
+    </row>
+    <row r="162" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="V162"/>
+      <c r="W162"/>
+      <c r="X162"/>
+      <c r="Y162"/>
+      <c r="Z162"/>
+      <c r="AA162"/>
+      <c r="AB162"/>
+      <c r="AC162"/>
+      <c r="AD162"/>
+      <c r="AE162"/>
+      <c r="AF162"/>
+      <c r="AG162"/>
+      <c r="AH162"/>
+      <c r="AI162"/>
+      <c r="AJ162"/>
+      <c r="AK162"/>
+      <c r="AL162"/>
+    </row>
+    <row r="163" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="V163"/>
+      <c r="W163"/>
+      <c r="X163"/>
+      <c r="Y163"/>
+      <c r="Z163"/>
+      <c r="AA163"/>
+      <c r="AB163"/>
+      <c r="AC163"/>
+      <c r="AD163"/>
+      <c r="AE163"/>
+      <c r="AF163"/>
+      <c r="AG163"/>
+      <c r="AH163"/>
+      <c r="AI163"/>
+      <c r="AJ163"/>
+      <c r="AK163"/>
+      <c r="AL163"/>
+    </row>
+    <row r="164" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="V164"/>
+      <c r="W164"/>
+      <c r="X164"/>
+      <c r="Y164"/>
+      <c r="Z164"/>
+      <c r="AA164"/>
+      <c r="AB164"/>
+      <c r="AC164"/>
+      <c r="AD164"/>
+      <c r="AE164"/>
+      <c r="AF164"/>
+      <c r="AG164"/>
+      <c r="AH164"/>
+      <c r="AI164"/>
+      <c r="AJ164"/>
+      <c r="AK164"/>
+      <c r="AL164"/>
+    </row>
+    <row r="165" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V165"/>
+      <c r="W165"/>
+      <c r="X165"/>
+      <c r="Y165"/>
+      <c r="Z165"/>
+      <c r="AA165"/>
+      <c r="AB165"/>
+      <c r="AC165"/>
+      <c r="AD165"/>
+      <c r="AE165"/>
+      <c r="AF165"/>
+      <c r="AG165"/>
+      <c r="AH165"/>
+      <c r="AI165"/>
+      <c r="AJ165"/>
+      <c r="AK165"/>
+      <c r="AL165"/>
+    </row>
+    <row r="166" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="11"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="61">
         <v>4</v>
       </c>
-      <c r="H154" s="2">
+      <c r="I166" s="4">
+        <v>11</v>
+      </c>
+      <c r="J166" s="4">
+        <v>14</v>
+      </c>
+      <c r="K166" s="4">
+        <v>18</v>
+      </c>
+      <c r="L166" s="15"/>
+      <c r="M166" s="11"/>
+      <c r="N166" s="11"/>
+      <c r="V166"/>
+      <c r="W166"/>
+      <c r="X166"/>
+      <c r="Y166"/>
+      <c r="Z166"/>
+      <c r="AA166"/>
+      <c r="AB166"/>
+      <c r="AC166"/>
+      <c r="AD166"/>
+      <c r="AE166"/>
+      <c r="AF166"/>
+      <c r="AG166"/>
+      <c r="AH166"/>
+      <c r="AI166"/>
+      <c r="AJ166"/>
+      <c r="AK166"/>
+      <c r="AL166"/>
+    </row>
+    <row r="167" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C167" s="7"/>
+      <c r="H167" s="57"/>
+      <c r="I167" s="13"/>
+      <c r="K167" s="38"/>
+      <c r="N167" s="16"/>
+      <c r="V167"/>
+      <c r="W167"/>
+      <c r="X167"/>
+      <c r="Y167"/>
+      <c r="Z167"/>
+      <c r="AA167"/>
+      <c r="AB167"/>
+      <c r="AC167"/>
+      <c r="AD167"/>
+      <c r="AE167"/>
+      <c r="AF167"/>
+      <c r="AG167"/>
+      <c r="AH167"/>
+      <c r="AI167"/>
+      <c r="AJ167"/>
+      <c r="AK167"/>
+      <c r="AL167"/>
+    </row>
+    <row r="168" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="2">
+        <v>1</v>
+      </c>
+      <c r="C168" s="2">
+        <v>2</v>
+      </c>
+      <c r="D168" s="2">
+        <v>3</v>
+      </c>
+      <c r="F168" s="61">
+        <v>6</v>
+      </c>
+      <c r="G168" s="60">
         <v>7</v>
       </c>
-      <c r="I154" s="2">
-        <v>10</v>
-      </c>
-      <c r="K154" s="2">
+      <c r="I168" s="2">
         <v>12</v>
       </c>
-      <c r="L154" s="2">
+      <c r="J168" s="2">
         <v>13</v>
       </c>
-      <c r="N154" s="2">
+      <c r="L168" s="2">
         <v>15</v>
       </c>
-      <c r="O154" s="2">
+      <c r="M168" s="2">
         <v>16</v>
       </c>
-      <c r="Q154" s="2">
-        <v>19</v>
-      </c>
-      <c r="R154" s="2">
+      <c r="O168" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="156" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="3"/>
-      <c r="G156" s="3"/>
-      <c r="H156" s="3"/>
-      <c r="I156" s="3"/>
-      <c r="J156" s="3"/>
-      <c r="K156" s="3"/>
-      <c r="L156" s="3"/>
-      <c r="M156" s="3"/>
-      <c r="N156" s="3"/>
-      <c r="O156" s="3"/>
-      <c r="P156" s="3"/>
-      <c r="Q156" s="3"/>
-      <c r="R156" s="3"/>
-      <c r="S156" s="3"/>
-      <c r="T156" s="3"/>
-      <c r="U156" s="3"/>
-      <c r="V156" s="3"/>
-      <c r="W156" s="3"/>
-      <c r="X156" s="3"/>
-      <c r="Y156" s="3"/>
-      <c r="Z156" s="3"/>
-      <c r="AA156" s="3"/>
-      <c r="AB156" s="3"/>
-      <c r="AC156" s="3"/>
-      <c r="AD156" s="3"/>
-      <c r="AE156" s="3"/>
-      <c r="AF156" s="3"/>
-      <c r="AG156" s="3"/>
-      <c r="AH156" s="3"/>
-      <c r="AI156" s="3"/>
-      <c r="AJ156" s="3"/>
-      <c r="AK156" s="3"/>
-      <c r="AL156" s="3"/>
-    </row>
-    <row r="157" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="158" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J158" s="4">
+      <c r="P168" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q168" s="2">
+        <v>28</v>
+      </c>
+      <c r="V168"/>
+      <c r="W168"/>
+      <c r="X168"/>
+      <c r="Y168"/>
+      <c r="Z168"/>
+      <c r="AA168"/>
+      <c r="AB168"/>
+      <c r="AC168"/>
+      <c r="AD168"/>
+      <c r="AE168"/>
+      <c r="AF168"/>
+      <c r="AG168"/>
+      <c r="AH168"/>
+      <c r="AI168"/>
+      <c r="AJ168"/>
+      <c r="AK168"/>
+      <c r="AL168"/>
+    </row>
+    <row r="169" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="V169"/>
+      <c r="W169"/>
+      <c r="X169"/>
+      <c r="Y169"/>
+      <c r="Z169"/>
+      <c r="AA169"/>
+      <c r="AB169"/>
+      <c r="AC169"/>
+      <c r="AD169"/>
+      <c r="AE169"/>
+      <c r="AF169"/>
+      <c r="AG169"/>
+      <c r="AH169"/>
+      <c r="AI169"/>
+      <c r="AJ169"/>
+      <c r="AK169"/>
+      <c r="AL169"/>
+    </row>
+    <row r="170" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="V170"/>
+      <c r="W170"/>
+      <c r="X170"/>
+      <c r="Y170"/>
+      <c r="Z170"/>
+      <c r="AA170"/>
+      <c r="AB170"/>
+      <c r="AC170"/>
+      <c r="AD170"/>
+      <c r="AE170"/>
+      <c r="AF170"/>
+      <c r="AG170"/>
+      <c r="AH170"/>
+      <c r="AI170"/>
+      <c r="AJ170"/>
+      <c r="AK170"/>
+      <c r="AL170"/>
+    </row>
+    <row r="171" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="V171"/>
+      <c r="W171"/>
+      <c r="X171"/>
+      <c r="Y171"/>
+      <c r="Z171"/>
+      <c r="AA171"/>
+      <c r="AB171"/>
+      <c r="AC171"/>
+      <c r="AD171"/>
+      <c r="AE171"/>
+      <c r="AF171"/>
+      <c r="AG171"/>
+      <c r="AH171"/>
+      <c r="AI171"/>
+      <c r="AJ171"/>
+      <c r="AK171"/>
+      <c r="AL171"/>
+    </row>
+    <row r="172" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="V172"/>
+      <c r="W172"/>
+      <c r="X172"/>
+      <c r="Y172"/>
+      <c r="Z172"/>
+      <c r="AA172"/>
+      <c r="AB172"/>
+      <c r="AC172"/>
+      <c r="AD172"/>
+      <c r="AE172"/>
+      <c r="AF172"/>
+      <c r="AG172"/>
+      <c r="AH172"/>
+      <c r="AI172"/>
+      <c r="AJ172"/>
+      <c r="AK172"/>
+      <c r="AL172"/>
+    </row>
+    <row r="174" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B174" s="17"/>
+      <c r="C174" s="17"/>
+      <c r="D174" s="17"/>
+      <c r="E174" s="17"/>
+      <c r="F174" s="17"/>
+      <c r="G174" s="17"/>
+      <c r="H174" s="17"/>
+      <c r="I174" s="17"/>
+      <c r="J174" s="17"/>
+      <c r="K174" s="17"/>
+      <c r="L174" s="17"/>
+      <c r="M174" s="17"/>
+      <c r="N174" s="17"/>
+      <c r="O174" s="17"/>
+      <c r="P174" s="17"/>
+      <c r="Q174" s="17"/>
+      <c r="R174" s="17"/>
+      <c r="S174" s="17"/>
+      <c r="T174" s="17"/>
+      <c r="U174" s="17"/>
+      <c r="V174" s="17"/>
+      <c r="W174" s="17"/>
+      <c r="X174" s="17"/>
+      <c r="Y174" s="17"/>
+      <c r="Z174" s="17"/>
+      <c r="AA174" s="17"/>
+      <c r="AB174" s="17"/>
+      <c r="AC174" s="17"/>
+      <c r="AD174" s="17"/>
+      <c r="AE174" s="17"/>
+      <c r="AF174" s="17"/>
+      <c r="AG174" s="17"/>
+      <c r="AH174" s="17"/>
+      <c r="AI174" s="17"/>
+      <c r="AJ174" s="17"/>
+      <c r="AK174" s="17"/>
+      <c r="AL174" s="17"/>
+    </row>
+    <row r="175" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="176" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
+      <c r="F176" s="11"/>
+      <c r="G176" s="12"/>
+      <c r="H176" s="4">
+        <v>4</v>
+      </c>
+      <c r="I176" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="159" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I159" s="9"/>
-      <c r="J159" s="8"/>
-    </row>
-    <row r="160" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D160" s="12"/>
-      <c r="E160" s="12"/>
-      <c r="F160" s="12"/>
-      <c r="G160" s="13"/>
-      <c r="H160" s="21">
+      <c r="J176" s="59">
+        <v>14</v>
+      </c>
+      <c r="K176" s="4">
+        <v>18</v>
+      </c>
+      <c r="L176" s="15"/>
+      <c r="M176" s="11"/>
+      <c r="N176" s="11"/>
+      <c r="V176"/>
+      <c r="W176"/>
+      <c r="X176"/>
+      <c r="Y176"/>
+      <c r="Z176"/>
+      <c r="AA176"/>
+      <c r="AB176"/>
+      <c r="AC176"/>
+      <c r="AD176"/>
+      <c r="AE176"/>
+      <c r="AF176"/>
+      <c r="AG176"/>
+      <c r="AH176"/>
+      <c r="AI176"/>
+      <c r="AJ176"/>
+      <c r="AK176"/>
+      <c r="AL176"/>
+    </row>
+    <row r="177" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C177" s="7"/>
+      <c r="H177" s="57"/>
+      <c r="I177" s="13"/>
+      <c r="K177" s="38"/>
+      <c r="N177" s="16"/>
+      <c r="V177"/>
+      <c r="W177"/>
+      <c r="X177"/>
+      <c r="Y177"/>
+      <c r="Z177"/>
+      <c r="AA177"/>
+      <c r="AB177"/>
+      <c r="AC177"/>
+      <c r="AD177"/>
+      <c r="AE177"/>
+      <c r="AF177"/>
+      <c r="AG177"/>
+      <c r="AH177"/>
+      <c r="AI177"/>
+      <c r="AJ177"/>
+      <c r="AK177"/>
+      <c r="AL177"/>
+    </row>
+    <row r="178" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="2">
+        <v>1</v>
+      </c>
+      <c r="C178" s="2">
+        <v>2</v>
+      </c>
+      <c r="D178" s="2">
         <v>3</v>
       </c>
-      <c r="I160" s="15">
+      <c r="F178" s="2">
         <v>6</v>
       </c>
-      <c r="J160" s="10"/>
-      <c r="K160" s="11">
-        <v>14</v>
-      </c>
-      <c r="L160" s="2">
+      <c r="G178" s="60">
+        <v>7</v>
+      </c>
+      <c r="I178" s="2">
+        <v>12</v>
+      </c>
+      <c r="J178" s="2">
+        <v>13</v>
+      </c>
+      <c r="L178" s="2">
+        <v>15</v>
+      </c>
+      <c r="M178" s="2">
+        <v>16</v>
+      </c>
+      <c r="O178" s="2">
+        <v>21</v>
+      </c>
+      <c r="P178" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q178" s="2">
+        <v>28</v>
+      </c>
+      <c r="V178"/>
+      <c r="W178"/>
+      <c r="X178"/>
+      <c r="Y178"/>
+      <c r="Z178"/>
+      <c r="AA178"/>
+      <c r="AB178"/>
+      <c r="AC178"/>
+      <c r="AD178"/>
+      <c r="AE178"/>
+      <c r="AF178"/>
+      <c r="AG178"/>
+      <c r="AH178"/>
+      <c r="AI178"/>
+      <c r="AJ178"/>
+      <c r="AK178"/>
+      <c r="AL178"/>
+    </row>
+    <row r="179" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="V179"/>
+      <c r="W179"/>
+      <c r="X179"/>
+      <c r="Y179"/>
+      <c r="Z179"/>
+      <c r="AA179"/>
+      <c r="AB179"/>
+      <c r="AC179"/>
+      <c r="AD179"/>
+      <c r="AE179"/>
+      <c r="AF179"/>
+      <c r="AG179"/>
+      <c r="AH179"/>
+      <c r="AI179"/>
+      <c r="AJ179"/>
+      <c r="AK179"/>
+      <c r="AL179"/>
+    </row>
+    <row r="180" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="V180"/>
+      <c r="W180"/>
+      <c r="X180"/>
+      <c r="Y180"/>
+      <c r="Z180"/>
+      <c r="AA180"/>
+      <c r="AB180"/>
+      <c r="AC180"/>
+      <c r="AD180"/>
+      <c r="AE180"/>
+      <c r="AF180"/>
+      <c r="AG180"/>
+      <c r="AH180"/>
+      <c r="AI180"/>
+      <c r="AJ180"/>
+      <c r="AK180"/>
+      <c r="AL180"/>
+    </row>
+    <row r="181" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="V181"/>
+      <c r="W181"/>
+      <c r="X181"/>
+      <c r="Y181"/>
+      <c r="Z181"/>
+      <c r="AA181"/>
+      <c r="AB181"/>
+      <c r="AC181"/>
+      <c r="AD181"/>
+      <c r="AE181"/>
+      <c r="AF181"/>
+      <c r="AG181"/>
+      <c r="AH181"/>
+      <c r="AI181"/>
+      <c r="AJ181"/>
+      <c r="AK181"/>
+      <c r="AL181"/>
+    </row>
+    <row r="182" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="V182"/>
+      <c r="W182"/>
+      <c r="X182"/>
+      <c r="Y182"/>
+      <c r="Z182"/>
+      <c r="AA182"/>
+      <c r="AB182"/>
+      <c r="AC182"/>
+      <c r="AD182"/>
+      <c r="AE182"/>
+      <c r="AF182"/>
+      <c r="AG182"/>
+      <c r="AH182"/>
+      <c r="AI182"/>
+      <c r="AJ182"/>
+      <c r="AK182"/>
+      <c r="AL182"/>
+    </row>
+    <row r="183" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="V183"/>
+      <c r="W183"/>
+      <c r="X183"/>
+      <c r="Y183"/>
+      <c r="Z183"/>
+      <c r="AA183"/>
+      <c r="AB183"/>
+      <c r="AC183"/>
+      <c r="AD183"/>
+      <c r="AE183"/>
+      <c r="AF183"/>
+      <c r="AG183"/>
+      <c r="AH183"/>
+      <c r="AI183"/>
+      <c r="AJ183"/>
+      <c r="AK183"/>
+      <c r="AL183"/>
+    </row>
+    <row r="184" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V184"/>
+      <c r="W184"/>
+      <c r="X184"/>
+      <c r="Y184"/>
+      <c r="Z184"/>
+      <c r="AA184"/>
+      <c r="AB184"/>
+      <c r="AC184"/>
+      <c r="AD184"/>
+      <c r="AE184"/>
+      <c r="AF184"/>
+      <c r="AG184"/>
+      <c r="AH184"/>
+      <c r="AI184"/>
+      <c r="AJ184"/>
+      <c r="AK184"/>
+      <c r="AL184"/>
+    </row>
+    <row r="185" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D185" s="11"/>
+      <c r="E185" s="11"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="4">
+        <v>4</v>
+      </c>
+      <c r="I185" s="4">
+        <v>11</v>
+      </c>
+      <c r="J185" s="61">
+        <v>15</v>
+      </c>
+      <c r="K185" s="4">
         <v>18</v>
       </c>
-      <c r="M160" s="17"/>
-      <c r="N160" s="12"/>
-      <c r="O160" s="12"/>
-      <c r="P160" s="12"/>
-    </row>
-    <row r="161" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C161" s="9"/>
-      <c r="H161" s="61"/>
-      <c r="I161" s="9"/>
-      <c r="J161" s="10"/>
-      <c r="L161" s="41"/>
-      <c r="P161" s="18"/>
-    </row>
-    <row r="162" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C162" s="7"/>
-      <c r="G162" s="59"/>
-      <c r="I162" s="7"/>
-      <c r="J162" s="10"/>
-      <c r="M162" s="60"/>
-      <c r="P162" s="9"/>
-    </row>
-    <row r="163" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="2">
+      <c r="L185" s="15"/>
+      <c r="M185" s="11"/>
+      <c r="N185" s="11"/>
+      <c r="V185"/>
+      <c r="W185"/>
+      <c r="X185"/>
+      <c r="Y185"/>
+      <c r="Z185"/>
+      <c r="AA185"/>
+      <c r="AB185"/>
+      <c r="AC185"/>
+      <c r="AD185"/>
+      <c r="AE185"/>
+      <c r="AF185"/>
+      <c r="AG185"/>
+      <c r="AH185"/>
+      <c r="AI185"/>
+      <c r="AJ185"/>
+      <c r="AK185"/>
+      <c r="AL185"/>
+    </row>
+    <row r="186" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C186" s="7"/>
+      <c r="H186" s="57"/>
+      <c r="I186" s="13"/>
+      <c r="K186" s="38"/>
+      <c r="N186" s="16"/>
+      <c r="V186"/>
+      <c r="W186"/>
+      <c r="X186"/>
+      <c r="Y186"/>
+      <c r="Z186"/>
+      <c r="AA186"/>
+      <c r="AB186"/>
+      <c r="AC186"/>
+      <c r="AD186"/>
+      <c r="AE186"/>
+      <c r="AF186"/>
+      <c r="AG186"/>
+      <c r="AH186"/>
+      <c r="AI186"/>
+      <c r="AJ186"/>
+      <c r="AK186"/>
+      <c r="AL186"/>
+    </row>
+    <row r="187" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="2">
         <v>1</v>
       </c>
-      <c r="C163" s="2">
+      <c r="C187" s="2">
         <v>2</v>
       </c>
-      <c r="E163" s="2">
+      <c r="D187" s="2">
+        <v>3</v>
+      </c>
+      <c r="F187" s="2">
+        <v>6</v>
+      </c>
+      <c r="G187" s="60">
+        <v>7</v>
+      </c>
+      <c r="I187" s="2">
+        <v>12</v>
+      </c>
+      <c r="J187" s="2">
+        <v>13</v>
+      </c>
+      <c r="L187" s="59">
+        <v>15</v>
+      </c>
+      <c r="M187" s="2">
+        <v>16</v>
+      </c>
+      <c r="O187" s="2">
+        <v>21</v>
+      </c>
+      <c r="P187" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q187" s="2">
+        <v>28</v>
+      </c>
+      <c r="V187"/>
+      <c r="W187"/>
+      <c r="X187"/>
+      <c r="Y187"/>
+      <c r="Z187"/>
+      <c r="AA187"/>
+      <c r="AB187"/>
+      <c r="AC187"/>
+      <c r="AD187"/>
+      <c r="AE187"/>
+      <c r="AF187"/>
+      <c r="AG187"/>
+      <c r="AH187"/>
+      <c r="AI187"/>
+      <c r="AJ187"/>
+      <c r="AK187"/>
+      <c r="AL187"/>
+    </row>
+    <row r="188" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="V188"/>
+      <c r="W188"/>
+      <c r="X188"/>
+      <c r="Y188"/>
+      <c r="Z188"/>
+      <c r="AA188"/>
+      <c r="AB188"/>
+      <c r="AC188"/>
+      <c r="AD188"/>
+      <c r="AE188"/>
+      <c r="AF188"/>
+      <c r="AG188"/>
+      <c r="AH188"/>
+      <c r="AI188"/>
+      <c r="AJ188"/>
+      <c r="AK188"/>
+      <c r="AL188"/>
+    </row>
+    <row r="189" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="V189"/>
+      <c r="W189"/>
+      <c r="X189"/>
+      <c r="Y189"/>
+      <c r="Z189"/>
+      <c r="AA189"/>
+      <c r="AB189"/>
+      <c r="AC189"/>
+      <c r="AD189"/>
+      <c r="AE189"/>
+      <c r="AF189"/>
+      <c r="AG189"/>
+      <c r="AH189"/>
+      <c r="AI189"/>
+      <c r="AJ189"/>
+      <c r="AK189"/>
+      <c r="AL189"/>
+    </row>
+    <row r="190" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="V190"/>
+      <c r="W190"/>
+      <c r="X190"/>
+      <c r="Y190"/>
+      <c r="Z190"/>
+      <c r="AA190"/>
+      <c r="AB190"/>
+      <c r="AC190"/>
+      <c r="AD190"/>
+      <c r="AE190"/>
+      <c r="AF190"/>
+      <c r="AG190"/>
+      <c r="AH190"/>
+      <c r="AI190"/>
+      <c r="AJ190"/>
+      <c r="AK190"/>
+      <c r="AL190"/>
+    </row>
+    <row r="191" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="V191"/>
+      <c r="W191"/>
+      <c r="X191"/>
+      <c r="Y191"/>
+      <c r="Z191"/>
+      <c r="AA191"/>
+      <c r="AB191"/>
+      <c r="AC191"/>
+      <c r="AD191"/>
+      <c r="AE191"/>
+      <c r="AF191"/>
+      <c r="AG191"/>
+      <c r="AH191"/>
+      <c r="AI191"/>
+      <c r="AJ191"/>
+      <c r="AK191"/>
+      <c r="AL191"/>
+    </row>
+    <row r="192" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="V192"/>
+      <c r="W192"/>
+      <c r="X192"/>
+      <c r="Y192"/>
+      <c r="Z192"/>
+      <c r="AA192"/>
+      <c r="AB192"/>
+      <c r="AC192"/>
+      <c r="AD192"/>
+      <c r="AE192"/>
+      <c r="AF192"/>
+      <c r="AG192"/>
+      <c r="AH192"/>
+      <c r="AI192"/>
+      <c r="AJ192"/>
+      <c r="AK192"/>
+      <c r="AL192"/>
+    </row>
+    <row r="193" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U193"/>
+      <c r="V193"/>
+      <c r="W193"/>
+      <c r="X193"/>
+      <c r="Y193"/>
+      <c r="Z193"/>
+      <c r="AA193"/>
+      <c r="AB193"/>
+      <c r="AC193"/>
+      <c r="AD193"/>
+      <c r="AE193"/>
+      <c r="AF193"/>
+      <c r="AG193"/>
+      <c r="AH193"/>
+      <c r="AI193"/>
+      <c r="AJ193"/>
+      <c r="AK193"/>
+      <c r="AL193"/>
+    </row>
+    <row r="194" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D194" s="11"/>
+      <c r="E194" s="11"/>
+      <c r="F194" s="11"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="4">
         <v>4</v>
       </c>
-      <c r="F163" s="2">
-        <v>4</v>
-      </c>
-      <c r="H163" s="2">
+      <c r="I194" s="4">
+        <v>11</v>
+      </c>
+      <c r="J194" s="4">
+        <v>18</v>
+      </c>
+      <c r="K194" s="11"/>
+      <c r="L194" s="11"/>
+      <c r="M194" s="11"/>
+      <c r="N194" s="62"/>
+      <c r="V194"/>
+      <c r="W194"/>
+      <c r="X194"/>
+      <c r="Y194"/>
+      <c r="Z194"/>
+      <c r="AA194"/>
+      <c r="AB194"/>
+      <c r="AC194"/>
+      <c r="AD194"/>
+      <c r="AE194"/>
+      <c r="AF194"/>
+      <c r="AG194"/>
+      <c r="AH194"/>
+      <c r="AI194"/>
+      <c r="AJ194"/>
+      <c r="AK194"/>
+      <c r="AL194"/>
+    </row>
+    <row r="195" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C195" s="7"/>
+      <c r="H195" s="57"/>
+      <c r="I195" s="13"/>
+      <c r="M195" s="16"/>
+      <c r="V195"/>
+      <c r="W195"/>
+      <c r="X195"/>
+      <c r="Y195"/>
+      <c r="Z195"/>
+      <c r="AA195"/>
+      <c r="AB195"/>
+      <c r="AC195"/>
+      <c r="AD195"/>
+      <c r="AE195"/>
+      <c r="AF195"/>
+      <c r="AG195"/>
+      <c r="AH195"/>
+      <c r="AI195"/>
+      <c r="AJ195"/>
+      <c r="AK195"/>
+      <c r="AL195"/>
+    </row>
+    <row r="196" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="2">
+        <v>1</v>
+      </c>
+      <c r="C196" s="2">
+        <v>2</v>
+      </c>
+      <c r="D196" s="2">
+        <v>3</v>
+      </c>
+      <c r="F196" s="2">
+        <v>6</v>
+      </c>
+      <c r="G196" s="60">
         <v>7</v>
       </c>
-      <c r="I163" s="2">
-        <v>10</v>
-      </c>
-      <c r="K163" s="2">
+      <c r="I196" s="2">
         <v>12</v>
       </c>
-      <c r="L163" s="2">
+      <c r="J196" s="2">
         <v>13</v>
       </c>
-      <c r="N163" s="2">
+      <c r="K196" s="61">
         <v>15</v>
       </c>
-      <c r="O163" s="2">
+      <c r="L196" s="2">
         <v>16</v>
       </c>
-      <c r="Q163" s="2">
-        <v>19</v>
-      </c>
-      <c r="R163" s="2">
+      <c r="N196" s="2">
         <v>21</v>
       </c>
-      <c r="S163" s="2">
+      <c r="O196" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="165" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="3"/>
-      <c r="J165" s="3"/>
-      <c r="K165" s="3"/>
-      <c r="L165" s="3"/>
-      <c r="M165" s="3"/>
-      <c r="N165" s="3"/>
-      <c r="O165" s="3"/>
-      <c r="P165" s="3"/>
-      <c r="Q165" s="3"/>
-      <c r="R165" s="3"/>
-      <c r="S165" s="3"/>
-      <c r="T165" s="3"/>
-      <c r="U165" s="3"/>
-      <c r="V165" s="3"/>
-      <c r="W165" s="3"/>
-      <c r="X165" s="3"/>
-      <c r="Y165" s="3"/>
-      <c r="Z165" s="3"/>
-      <c r="AA165" s="3"/>
-      <c r="AB165" s="3"/>
-      <c r="AC165" s="3"/>
-      <c r="AD165" s="3"/>
-      <c r="AE165" s="3"/>
-      <c r="AF165" s="3"/>
-      <c r="AG165" s="3"/>
-      <c r="AH165" s="3"/>
-      <c r="AI165" s="3"/>
-      <c r="AJ165" s="3"/>
-      <c r="AK165" s="3"/>
-      <c r="AL165" s="3"/>
-    </row>
-    <row r="166" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="167" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J167" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="168" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I168" s="9"/>
-      <c r="J168" s="8"/>
-    </row>
-    <row r="169" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D169" s="12"/>
-      <c r="E169" s="12"/>
-      <c r="F169" s="12"/>
-      <c r="G169" s="13"/>
-      <c r="H169" s="21">
-        <v>3</v>
-      </c>
-      <c r="I169" s="15">
-        <v>6</v>
-      </c>
-      <c r="J169" s="10"/>
-      <c r="K169" s="11">
-        <v>14</v>
-      </c>
-      <c r="L169" s="2">
-        <v>18</v>
-      </c>
-      <c r="M169" s="17"/>
-      <c r="N169" s="12"/>
-      <c r="O169" s="12"/>
-      <c r="P169" s="12"/>
-    </row>
-    <row r="170" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C170" s="9"/>
-      <c r="H170" s="61"/>
-      <c r="I170" s="9"/>
-      <c r="J170" s="10"/>
-      <c r="L170" s="41"/>
-      <c r="P170" s="18"/>
-    </row>
-    <row r="171" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C171" s="7"/>
-      <c r="G171" s="59"/>
-      <c r="I171" s="7"/>
-      <c r="J171" s="10"/>
-      <c r="M171" s="60"/>
-      <c r="P171" s="9"/>
-    </row>
-    <row r="172" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="2">
-        <v>1</v>
-      </c>
-      <c r="C172" s="2">
-        <v>2</v>
-      </c>
-      <c r="E172" s="2">
-        <v>4</v>
-      </c>
-      <c r="F172" s="2">
-        <v>4</v>
-      </c>
-      <c r="H172" s="2">
-        <v>7</v>
-      </c>
-      <c r="I172" s="2">
-        <v>10</v>
-      </c>
-      <c r="K172" s="2">
-        <v>12</v>
-      </c>
-      <c r="L172" s="2">
+      <c r="P196" s="2">
+        <v>28</v>
+      </c>
+      <c r="V196"/>
+      <c r="W196"/>
+      <c r="X196"/>
+      <c r="Y196"/>
+      <c r="Z196"/>
+      <c r="AA196"/>
+      <c r="AB196"/>
+      <c r="AC196"/>
+      <c r="AD196"/>
+      <c r="AE196"/>
+      <c r="AF196"/>
+      <c r="AG196"/>
+      <c r="AH196"/>
+      <c r="AI196"/>
+      <c r="AJ196"/>
+      <c r="AK196"/>
+      <c r="AL196"/>
+    </row>
+    <row r="197" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="V197"/>
+      <c r="W197"/>
+      <c r="X197"/>
+      <c r="Y197"/>
+      <c r="Z197"/>
+      <c r="AA197"/>
+      <c r="AB197"/>
+      <c r="AC197"/>
+      <c r="AD197"/>
+      <c r="AE197"/>
+      <c r="AF197"/>
+      <c r="AG197"/>
+      <c r="AH197"/>
+      <c r="AI197"/>
+      <c r="AJ197"/>
+      <c r="AK197"/>
+      <c r="AL197"/>
+    </row>
+    <row r="198" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="V198"/>
+      <c r="W198"/>
+      <c r="X198"/>
+      <c r="Y198"/>
+      <c r="Z198"/>
+      <c r="AA198"/>
+      <c r="AB198"/>
+      <c r="AC198"/>
+      <c r="AD198"/>
+      <c r="AE198"/>
+      <c r="AF198"/>
+      <c r="AG198"/>
+      <c r="AH198"/>
+      <c r="AI198"/>
+      <c r="AJ198"/>
+      <c r="AK198"/>
+      <c r="AL198"/>
+    </row>
+    <row r="200" spans="1:38" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="N172" s="2">
-        <v>15</v>
-      </c>
-      <c r="O172" s="2">
-        <v>16</v>
-      </c>
-      <c r="Q172" s="2">
-        <v>19</v>
-      </c>
-      <c r="R172" s="2">
-        <v>21</v>
-      </c>
-      <c r="S172" s="2">
-        <v>22</v>
-      </c>
-      <c r="T172" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="175" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A175" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="177" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
-      <c r="D177" s="19"/>
-      <c r="E177" s="19"/>
-      <c r="F177" s="19"/>
-      <c r="G177" s="19"/>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="19"/>
-      <c r="K177" s="19"/>
-      <c r="L177" s="19"/>
-      <c r="M177" s="19"/>
-      <c r="N177" s="19"/>
-      <c r="O177" s="19"/>
-      <c r="P177" s="19"/>
-      <c r="Q177" s="19"/>
-      <c r="R177" s="19"/>
-      <c r="S177" s="19"/>
-      <c r="T177" s="19"/>
-      <c r="U177" s="19"/>
-      <c r="V177" s="19"/>
-      <c r="W177" s="19"/>
-      <c r="X177" s="19"/>
-      <c r="Y177" s="19"/>
-      <c r="Z177" s="19"/>
-      <c r="AA177" s="19"/>
-      <c r="AB177" s="19"/>
-      <c r="AC177" s="19"/>
-      <c r="AD177" s="19"/>
-      <c r="AE177" s="19"/>
-      <c r="AF177" s="19"/>
-      <c r="AG177" s="19"/>
-      <c r="AH177" s="19"/>
-      <c r="AI177" s="19"/>
-      <c r="AJ177" s="19"/>
-      <c r="AK177" s="19"/>
-      <c r="AL177" s="19"/>
-    </row>
-    <row r="178" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="179" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J179" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="180" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I180" s="9"/>
-      <c r="J180" s="8"/>
-    </row>
-    <row r="181" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D181" s="12"/>
-      <c r="E181" s="12"/>
-      <c r="F181" s="12"/>
-      <c r="G181" s="13"/>
-      <c r="H181" s="21">
-        <v>3</v>
-      </c>
-      <c r="I181" s="15">
-        <v>6</v>
-      </c>
-      <c r="J181" s="10"/>
-      <c r="K181" s="11">
-        <v>14</v>
-      </c>
-      <c r="L181" s="2">
-        <v>18</v>
-      </c>
-      <c r="M181" s="17"/>
-      <c r="N181" s="12"/>
-      <c r="O181" s="12"/>
-      <c r="P181" s="12"/>
-    </row>
-    <row r="182" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C182" s="9"/>
-      <c r="H182" s="61"/>
-      <c r="I182" s="9"/>
-      <c r="J182" s="10"/>
-      <c r="L182" s="41"/>
-      <c r="P182" s="18"/>
-    </row>
-    <row r="183" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C183" s="7"/>
-      <c r="G183" s="59"/>
-      <c r="I183" s="7"/>
-      <c r="J183" s="10"/>
-      <c r="M183" s="60"/>
-      <c r="P183" s="9"/>
-    </row>
-    <row r="184" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="2">
-        <v>1</v>
-      </c>
-      <c r="C184" s="2">
-        <v>2</v>
-      </c>
-      <c r="E184" s="2">
-        <v>4</v>
-      </c>
-      <c r="F184" s="2">
-        <v>4</v>
-      </c>
-      <c r="H184" s="2">
-        <v>7</v>
-      </c>
-      <c r="I184" s="2">
-        <v>10</v>
-      </c>
-      <c r="K184" s="2">
-        <v>12</v>
-      </c>
-      <c r="L184" s="2">
-        <v>13</v>
-      </c>
-      <c r="N184" s="2">
-        <v>15</v>
-      </c>
-      <c r="O184" s="2">
-        <v>16</v>
-      </c>
-      <c r="Q184" s="2">
-        <v>21</v>
-      </c>
-      <c r="R184" s="2">
-        <v>22</v>
-      </c>
-      <c r="S184" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="186" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B186" s="19"/>
-      <c r="C186" s="19"/>
-      <c r="D186" s="19"/>
-      <c r="E186" s="19"/>
-      <c r="F186" s="19"/>
-      <c r="G186" s="19"/>
-      <c r="H186" s="19"/>
-      <c r="I186" s="19"/>
-      <c r="J186" s="19"/>
-      <c r="K186" s="19"/>
-      <c r="L186" s="19"/>
-      <c r="M186" s="19"/>
-      <c r="N186" s="19"/>
-      <c r="O186" s="19"/>
-      <c r="P186" s="19"/>
-      <c r="Q186" s="19"/>
-      <c r="R186" s="19"/>
-      <c r="S186" s="19"/>
-      <c r="T186" s="19"/>
-      <c r="U186" s="19"/>
-      <c r="V186" s="19"/>
-      <c r="W186" s="19"/>
-      <c r="X186" s="19"/>
-      <c r="Y186" s="19"/>
-      <c r="Z186" s="19"/>
-      <c r="AA186" s="19"/>
-      <c r="AB186" s="19"/>
-      <c r="AC186" s="19"/>
-      <c r="AD186" s="19"/>
-      <c r="AE186" s="19"/>
-      <c r="AF186" s="19"/>
-      <c r="AG186" s="19"/>
-      <c r="AH186" s="19"/>
-      <c r="AI186" s="19"/>
-      <c r="AJ186" s="19"/>
-      <c r="AK186" s="19"/>
-      <c r="AL186" s="19"/>
-    </row>
-    <row r="187" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="188" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I188" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="189" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H189" s="7"/>
-      <c r="I189" s="65"/>
-    </row>
-    <row r="190" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D190" s="12"/>
-      <c r="E190" s="12"/>
-      <c r="F190" s="12"/>
-      <c r="G190" s="13"/>
-      <c r="H190" s="6">
-        <v>3</v>
-      </c>
-      <c r="I190" s="9"/>
-      <c r="J190" s="11">
-        <v>14</v>
-      </c>
-      <c r="K190" s="2">
-        <v>18</v>
-      </c>
-      <c r="L190" s="17"/>
-      <c r="M190" s="12"/>
-      <c r="N190" s="12"/>
-      <c r="O190" s="12"/>
-    </row>
-    <row r="191" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C191" s="9"/>
-      <c r="G191" s="64"/>
-      <c r="H191" s="61"/>
-      <c r="I191" s="9"/>
-      <c r="K191" s="41"/>
-      <c r="O191" s="18"/>
-    </row>
-    <row r="192" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C192" s="7"/>
-      <c r="F192" s="7"/>
-      <c r="I192" s="9"/>
-      <c r="L192" s="60"/>
-      <c r="O192" s="9"/>
-    </row>
-    <row r="193" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="2">
-        <v>1</v>
-      </c>
-      <c r="C193" s="2">
-        <v>2</v>
-      </c>
-      <c r="E193" s="2">
-        <v>4</v>
-      </c>
-      <c r="F193" s="2">
-        <v>4</v>
-      </c>
-      <c r="G193" s="2">
-        <v>6</v>
-      </c>
-      <c r="H193" s="2">
-        <v>7</v>
-      </c>
-      <c r="J193" s="2">
-        <v>12</v>
-      </c>
-      <c r="K193" s="2">
-        <v>13</v>
-      </c>
-      <c r="M193" s="2">
-        <v>15</v>
-      </c>
-      <c r="N193" s="2">
-        <v>16</v>
-      </c>
-      <c r="P193" s="2">
-        <v>21</v>
-      </c>
-      <c r="Q193" s="2">
-        <v>22</v>
-      </c>
-      <c r="R193" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="199" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="200" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D200" s="12"/>
-      <c r="E200" s="12"/>
-      <c r="F200" s="12"/>
-      <c r="G200" s="13"/>
-      <c r="H200" s="5">
-        <v>3</v>
-      </c>
-      <c r="I200" s="4">
-        <v>11</v>
-      </c>
-      <c r="J200" s="4">
-        <v>14</v>
-      </c>
-      <c r="K200" s="4">
-        <v>18</v>
-      </c>
-      <c r="L200" s="17"/>
-      <c r="M200" s="12"/>
-      <c r="N200" s="12"/>
-      <c r="O200" s="12"/>
-    </row>
-    <row r="201" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C201" s="9"/>
-      <c r="H201" s="61"/>
-      <c r="I201" s="65"/>
-      <c r="K201" s="41"/>
-      <c r="O201" s="18"/>
-    </row>
-    <row r="202" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C202" s="7"/>
-      <c r="G202" s="66"/>
-      <c r="I202" s="9"/>
-      <c r="L202" s="60"/>
-      <c r="O202" s="9"/>
-    </row>
-    <row r="203" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="2">
-        <v>1</v>
-      </c>
-      <c r="C203" s="2">
-        <v>2</v>
-      </c>
-      <c r="E203" s="2">
-        <v>4</v>
-      </c>
-      <c r="F203" s="2">
-        <v>4</v>
-      </c>
-      <c r="G203" s="2">
-        <v>6</v>
-      </c>
-      <c r="H203" s="2">
-        <v>7</v>
-      </c>
-      <c r="J203" s="2">
-        <v>12</v>
-      </c>
-      <c r="K203" s="2">
-        <v>13</v>
-      </c>
-      <c r="M203" s="2">
-        <v>15</v>
-      </c>
-      <c r="N203" s="2">
-        <v>16</v>
-      </c>
-      <c r="P203" s="2">
-        <v>21</v>
-      </c>
-      <c r="Q203" s="2">
-        <v>22</v>
-      </c>
-      <c r="R203" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="205" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B205" s="19"/>
-      <c r="C205" s="19"/>
-      <c r="D205" s="19"/>
-      <c r="E205" s="19"/>
-      <c r="F205" s="19"/>
-      <c r="G205" s="19"/>
-      <c r="H205" s="19"/>
-      <c r="I205" s="19"/>
-      <c r="J205" s="19"/>
-      <c r="K205" s="19"/>
-      <c r="L205" s="19"/>
-      <c r="M205" s="19"/>
-      <c r="N205" s="19"/>
-      <c r="O205" s="19"/>
-      <c r="P205" s="19"/>
-      <c r="Q205" s="19"/>
-      <c r="R205" s="19"/>
-      <c r="S205" s="19"/>
-      <c r="T205" s="19"/>
-      <c r="U205" s="19"/>
-      <c r="V205" s="19"/>
-      <c r="W205" s="19"/>
-      <c r="X205" s="19"/>
-      <c r="Y205" s="19"/>
-      <c r="Z205" s="19"/>
-      <c r="AA205" s="19"/>
-      <c r="AB205" s="19"/>
-      <c r="AC205" s="19"/>
-      <c r="AD205" s="19"/>
-      <c r="AE205" s="19"/>
-      <c r="AF205" s="19"/>
-      <c r="AG205" s="19"/>
-      <c r="AH205" s="19"/>
-      <c r="AI205" s="19"/>
-      <c r="AJ205" s="19"/>
-      <c r="AK205" s="19"/>
-      <c r="AL205" s="19"/>
-    </row>
-    <row r="206" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="207" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D207" s="12"/>
-      <c r="E207" s="12"/>
-      <c r="F207" s="12"/>
-      <c r="G207" s="13"/>
-      <c r="H207" s="4">
-        <v>3</v>
-      </c>
-      <c r="I207" s="4">
-        <v>11</v>
-      </c>
-      <c r="J207" s="4">
-        <v>13</v>
-      </c>
-      <c r="K207" s="4">
-        <v>18</v>
-      </c>
-      <c r="L207" s="17"/>
-      <c r="M207" s="12"/>
-      <c r="N207" s="12"/>
-      <c r="O207" s="12"/>
-    </row>
-    <row r="208" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C208" s="9"/>
-      <c r="H208" s="61"/>
-      <c r="I208" s="65"/>
-      <c r="K208" s="41"/>
-      <c r="O208" s="18"/>
-    </row>
-    <row r="209" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C209" s="7"/>
-      <c r="G209" s="66"/>
-      <c r="I209" s="9"/>
-      <c r="L209" s="60"/>
-      <c r="O209" s="9"/>
-    </row>
-    <row r="210" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="2">
-        <v>1</v>
-      </c>
-      <c r="C210" s="2">
-        <v>2</v>
-      </c>
-      <c r="E210" s="2">
-        <v>4</v>
-      </c>
-      <c r="F210" s="2">
-        <v>4</v>
-      </c>
-      <c r="G210" s="2">
-        <v>6</v>
-      </c>
-      <c r="H210" s="2">
-        <v>7</v>
-      </c>
-      <c r="J210" s="2">
-        <v>12</v>
-      </c>
-      <c r="K210" s="6"/>
-      <c r="M210" s="2">
-        <v>15</v>
-      </c>
-      <c r="N210" s="2">
-        <v>16</v>
-      </c>
-      <c r="P210" s="2">
-        <v>21</v>
-      </c>
-      <c r="Q210" s="2">
-        <v>22</v>
-      </c>
-      <c r="R210" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="214" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="215" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D215" s="12"/>
-      <c r="E215" s="12"/>
-      <c r="F215" s="12"/>
-      <c r="G215" s="13"/>
-      <c r="H215" s="4">
-        <v>3</v>
-      </c>
-      <c r="I215" s="6"/>
-      <c r="J215" s="4">
-        <v>13</v>
-      </c>
-      <c r="K215" s="4">
-        <v>18</v>
-      </c>
-      <c r="L215" s="17"/>
-      <c r="M215" s="12"/>
-      <c r="N215" s="12"/>
-      <c r="O215" s="12"/>
-    </row>
-    <row r="216" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C216" s="9"/>
-      <c r="H216" s="61"/>
-      <c r="I216" s="65"/>
-      <c r="K216" s="41"/>
-      <c r="O216" s="18"/>
-    </row>
-    <row r="217" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C217" s="7"/>
-      <c r="G217" s="66"/>
-      <c r="I217" s="9"/>
-      <c r="L217" s="60"/>
-      <c r="O217" s="9"/>
-    </row>
-    <row r="218" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="2">
-        <v>1</v>
-      </c>
-      <c r="C218" s="2">
-        <v>2</v>
-      </c>
-      <c r="E218" s="2">
-        <v>4</v>
-      </c>
-      <c r="F218" s="2">
-        <v>4</v>
-      </c>
-      <c r="G218" s="2">
-        <v>6</v>
-      </c>
-      <c r="H218" s="2">
-        <v>7</v>
-      </c>
-      <c r="J218" s="2">
-        <v>11</v>
-      </c>
-      <c r="K218" s="5">
-        <v>12</v>
-      </c>
-      <c r="M218" s="2">
-        <v>15</v>
-      </c>
-      <c r="N218" s="2">
-        <v>16</v>
-      </c>
-      <c r="P218" s="2">
-        <v>21</v>
-      </c>
-      <c r="Q218" s="2">
-        <v>22</v>
-      </c>
-      <c r="R218" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="223" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="224" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D224" s="12"/>
-      <c r="E224" s="12"/>
-      <c r="F224" s="12"/>
-      <c r="G224" s="13"/>
-      <c r="H224" s="4">
-        <v>3</v>
-      </c>
-      <c r="I224" s="5">
-        <v>7</v>
-      </c>
-      <c r="J224" s="4">
-        <v>13</v>
-      </c>
-      <c r="K224" s="4">
-        <v>18</v>
-      </c>
-      <c r="L224" s="17"/>
-      <c r="M224" s="12"/>
-      <c r="N224" s="12"/>
-      <c r="O224" s="12"/>
-    </row>
-    <row r="225" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C225" s="9"/>
-      <c r="H225" s="61"/>
-      <c r="I225" s="65"/>
-      <c r="K225" s="41"/>
-      <c r="O225" s="18"/>
-    </row>
-    <row r="226" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C226" s="7"/>
-      <c r="G226" s="66"/>
-      <c r="H226" s="42"/>
-      <c r="I226" s="9"/>
-      <c r="L226" s="60"/>
-      <c r="O226" s="9"/>
-    </row>
-    <row r="227" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="2">
-        <v>1</v>
-      </c>
-      <c r="C227" s="2">
-        <v>2</v>
-      </c>
-      <c r="E227" s="2">
-        <v>4</v>
-      </c>
-      <c r="F227" s="2">
-        <v>4</v>
-      </c>
-      <c r="G227" s="2">
-        <v>6</v>
-      </c>
-      <c r="H227" s="67"/>
-      <c r="J227" s="2">
-        <v>11</v>
-      </c>
-      <c r="K227" s="21">
-        <v>12</v>
-      </c>
-      <c r="M227" s="2">
-        <v>15</v>
-      </c>
-      <c r="N227" s="2">
-        <v>16</v>
-      </c>
-      <c r="P227" s="2">
-        <v>21</v>
-      </c>
-      <c r="Q227" s="2">
-        <v>22</v>
-      </c>
-      <c r="R227" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="228" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="H228" s="42"/>
-    </row>
-    <row r="229" spans="1:38" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="20"/>
-      <c r="B229" s="20"/>
-      <c r="C229" s="20"/>
-      <c r="D229" s="20"/>
-      <c r="E229" s="20"/>
-      <c r="F229" s="20"/>
-      <c r="G229" s="20"/>
-      <c r="H229" s="20"/>
-      <c r="I229" s="20"/>
-      <c r="J229" s="20"/>
-      <c r="K229" s="20"/>
-      <c r="L229" s="20"/>
-      <c r="M229" s="20"/>
-      <c r="N229" s="20"/>
-      <c r="O229" s="20"/>
-      <c r="P229" s="20"/>
-      <c r="Q229" s="20"/>
-      <c r="R229" s="20"/>
-      <c r="S229" s="20"/>
-      <c r="T229" s="20"/>
-      <c r="U229" s="20"/>
-      <c r="V229" s="20"/>
-      <c r="W229" s="20"/>
-      <c r="X229" s="20"/>
-      <c r="Y229" s="20"/>
-      <c r="Z229" s="20"/>
-      <c r="AA229" s="20"/>
-      <c r="AB229" s="20"/>
-      <c r="AC229" s="20"/>
-      <c r="AD229" s="20"/>
-      <c r="AE229" s="20"/>
-      <c r="AF229" s="20"/>
-      <c r="AG229" s="20"/>
-      <c r="AH229" s="20"/>
-      <c r="AI229" s="20"/>
-      <c r="AJ229" s="20"/>
-      <c r="AK229" s="20"/>
-      <c r="AL229" s="20"/>
+      <c r="B200" s="18"/>
+      <c r="C200" s="18"/>
+      <c r="D200" s="18"/>
+      <c r="E200" s="18"/>
+      <c r="F200" s="18"/>
+      <c r="G200" s="18"/>
+      <c r="H200" s="18"/>
+      <c r="I200" s="18"/>
+      <c r="J200" s="18"/>
+      <c r="K200" s="18"/>
+      <c r="L200" s="18"/>
+      <c r="M200" s="18"/>
+      <c r="N200" s="18"/>
+      <c r="O200" s="18"/>
+      <c r="P200" s="18"/>
+      <c r="Q200" s="18"/>
+      <c r="R200" s="18"/>
+      <c r="S200" s="18"/>
+      <c r="T200" s="18"/>
+      <c r="U200" s="18"/>
+      <c r="V200" s="18"/>
+      <c r="W200" s="18"/>
+      <c r="X200" s="18"/>
+      <c r="Y200" s="18"/>
+      <c r="Z200" s="18"/>
+      <c r="AA200" s="18"/>
+      <c r="AB200" s="18"/>
+      <c r="AC200" s="18"/>
+      <c r="AD200" s="18"/>
+      <c r="AE200" s="18"/>
+      <c r="AF200" s="18"/>
+      <c r="AG200" s="18"/>
+      <c r="AH200" s="18"/>
+      <c r="AI200" s="18"/>
+      <c r="AJ200" s="18"/>
+      <c r="AK200" s="18"/>
+      <c r="AL200" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
